--- a/Russell_2021_DATA_preclinical_review_done_for_us.xlsx
+++ b/Russell_2021_DATA_preclinical_review_done_for_us.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Allanna\University\2018 PhD\PUBLICATIONS\2021 What has preclinical systematic review ever done for us\Data and analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DFCAA4-53FA-4AA9-83D4-3BDA7712D620}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6DF729-0CB3-4B8D-A252-398CA501B33A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="605" xr2:uid="{C7110CDD-F2E6-48CC-AB00-5DC8E1CAB485}"/>
+    <workbookView xWindow="28680" yWindow="-4935" windowWidth="19440" windowHeight="15000" tabRatio="605" xr2:uid="{C7110CDD-F2E6-48CC-AB00-5DC8E1CAB485}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="14" r:id="rId1"/>
-    <sheet name="Exclusion numbers" sheetId="8" r:id="rId2"/>
-    <sheet name="Conclusions, ROB, pub bias" sheetId="9" r:id="rId3"/>
-    <sheet name="Calculating ROB scores" sheetId="10" r:id="rId4"/>
-    <sheet name="Pubmed search terms" sheetId="12" r:id="rId5"/>
-    <sheet name="Data validation" sheetId="2" r:id="rId6"/>
+    <sheet name="All studies" sheetId="15" r:id="rId2"/>
+    <sheet name="Exclusion numbers" sheetId="8" r:id="rId3"/>
+    <sheet name="Conclusions, ROB, pub bias" sheetId="9" r:id="rId4"/>
+    <sheet name="Calculating ROB scores" sheetId="10" r:id="rId5"/>
+    <sheet name="Pubmed search terms" sheetId="12" r:id="rId6"/>
+    <sheet name="Data validation" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="892">
   <si>
     <t>Yes</t>
   </si>
@@ -1138,9 +1139,6 @@
     <t>Explanation</t>
   </si>
   <si>
-    <t>Data extracted from 20 randomly selected systematic reviews. Data are on the numbers of publications the reviews identified in their searches, how many were excluded, and for what reason. Summary statistics are calculated in this sheet.</t>
-  </si>
-  <si>
     <t>Note: The following 3 papers were selected then removed as the numbers in their PRISMA flow diagram did not add up</t>
   </si>
   <si>
@@ -1171,9 +1169,6 @@
     <t>Sheet used for notes and data validation tools built into Excel. Contains text used in several drop-down menus across the spreadsheet.</t>
   </si>
   <si>
-    <t xml:space="preserve">Selection criteria for these 20 reviews listed in publication of these data. Random number generation in Excel used for selection. Resampling utilised if a review was excluded for errors in data reporting, reviews excluded for this reason (n=3) listed at bottom of the sheet. More detailed criteria for each exclusion category (irrelevant, ineligible, other) listed in "Data validation" sheet. </t>
-  </si>
-  <si>
     <t>Data extracted from 20 randomly selected systematic reviews. Data are on the conclusions drawn by the authors of each review on the effectiveness of their intervention and the robustness of their conclusions. This sheet also contains data on whether the reviewers assessed the quality and/or risk of bias (ROB) of their included publications, and whether they assessed/properly considered the effect of publication bias in their analysis.</t>
   </si>
   <si>
@@ -1193,6 +1188,1606 @@
   </si>
   <si>
     <t>Search term in PubMed advanced search</t>
+  </si>
+  <si>
+    <t>All studies</t>
+  </si>
+  <si>
+    <t>M. B. A. Adinortey, R.:Boison, D.:Ekloh, W.:Kuatsienu, L. E.:Biney, E. E.:Affum, O. O.:Kwarteng, J.:Nyarko, A. K.</t>
+  </si>
+  <si>
+    <t>Phytomedicines Used for Diabetes Mellitus in Ghana: A Systematic Search and Review of Preclinical and Clinical Evidence</t>
+  </si>
+  <si>
+    <t>S. B. Agrawal, K. L.:Marks, E.:Fox, J. H.</t>
+  </si>
+  <si>
+    <t>Impact of high iron intake on cognition and neurodegeneration in humans and in animal models: a systematic review</t>
+  </si>
+  <si>
+    <t>A. S. M. Alshnbari, S. A.:O'Sullivan, S. E.:Idris, I.</t>
+  </si>
+  <si>
+    <t>Effect of Sodium-Glucose Cotransporter-2 Inhibitors on Endothelial Function: A Systematic Review of Preclinical Studies</t>
+  </si>
+  <si>
+    <t>L. S. A. Altoe, R. S.:Sarandy, M. M.:Morais-Santos, M.:Novaes, R. D.:Goncalves, R. V.</t>
+  </si>
+  <si>
+    <t>Does antibiotic use accelerate or retard cutaneous repair? A systematic review in animal models</t>
+  </si>
+  <si>
+    <t>K. P. Andersen, T. K.:Hauge, E. M.:Schou, S.:Norholt, S. E.</t>
+  </si>
+  <si>
+    <t>Effect of mandibular distraction osteogenesis on the temporomandibular joint: a systematic review of animal experimental studies</t>
+  </si>
+  <si>
+    <t>E. F. O. Andrade, D. R.:Araujo, A. M. S.:de Andrade, Jnbm:Azzi, D. V.:de Lima, R. R.:Lobo-Junior, A. R.:Pereira, L. J.</t>
+  </si>
+  <si>
+    <t>Can Resveratrol Treatment Control the Progression of Induced Periodontal Disease? A Systematic Review and Meta-Analysis of Preclinical Studies</t>
+  </si>
+  <si>
+    <t>S. R. Andrade, M. J.:Loureiro, J. A.:Pereira, M. D. C.</t>
+  </si>
+  <si>
+    <t>Natural Compounds for Alzheimer's Disease Therapy: A Systematic Review of Preclinical and Clinical Studies</t>
+  </si>
+  <si>
+    <t>A. S. Antonic, E. S.:Lees, J. S.:Wills, T. E.:Skeers, P.:Batchelor, P. E.:Macleod, M. R.:Howells, D. W.</t>
+  </si>
+  <si>
+    <t>Stem cell transplantation in traumatic spinal cord injury: a systematic review and meta-analysis of animal studies</t>
+  </si>
+  <si>
+    <t>C. C. R. Applegate, J. L., 3rd:Erdman, J. W., Jr.</t>
+  </si>
+  <si>
+    <t>Can Lycopene Impact the Androgen Axis in Prostate Cancer?: A Systematic Review of Cell Culture and Animal Studies</t>
+  </si>
+  <si>
+    <t>S. A. Augustine, M. T.:Harrison, B.:Locke, T.:Ghannad, M.:Moher, D.:Thebaud, B.</t>
+  </si>
+  <si>
+    <t>Mesenchymal Stromal Cell Therapy in Bronchopulmonary Dysplasia: Systematic Review and Meta-Analysis of Preclinical Studies</t>
+  </si>
+  <si>
+    <t>S. C. Augustine, W.:Avey, M. T.:Chan, M. L.:Lingappa, S. M. C.:Hutton, B.:Thebaud, B.</t>
+  </si>
+  <si>
+    <t>Are all stem cells equal? Systematic review, evidence map, and meta-analyses of preclinical stem cell-based therapies for bronchopulmonary dysplasia</t>
+  </si>
+  <si>
+    <t>C. C. L. Barron, M. M.:Stewart, D. J.:Fergusson, D.:Yang, H.:Moher, D.:Liu, P.:Mazer, D.:Devereaux, P. J.:McIntyre, L.:Canadian Perioperative Anesthesia Clinical Trials, Group</t>
+  </si>
+  <si>
+    <t>Assessment of safety and efficacy of mesenchymal stromal cell therapy in preclinical models of acute myocardial infarction: a systematic review protocol</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>A. Y. Basilious, J.:Fehlings, M. G.</t>
+  </si>
+  <si>
+    <t>Neurological outcomes of animal models of uterine artery ligation and relevance to human intrauterine growth restriction: a systematic review</t>
+  </si>
+  <si>
+    <t>P. E. S. Batchelor, P.:Antonic, A.:Wills, T. E.:Howells, D. W.:Macleod, M. R.:Sena, E. S.</t>
+  </si>
+  <si>
+    <t>Systematic review and meta-analysis of therapeutic hypothermia in animal models of spinal cord injury</t>
+  </si>
+  <si>
+    <t>C. R. C. Battistuzzo, R. J.:Callister, R.:Galea, M. P.</t>
+  </si>
+  <si>
+    <t>A systematic review of exercise training to promote locomotor recovery in animal models of spinal cord injury</t>
+  </si>
+  <si>
+    <t>J. A. Bayes, N.:Schloss, J.</t>
+  </si>
+  <si>
+    <t>The Bioavailability of Various Oral Forms of Folate Supplementation in Healthy Populations and Animal Models: A Systematic Review</t>
+  </si>
+  <si>
+    <t>M. L. Belgers, M.:Homberg, J. R.:Ritskes-Hoitinga, M.:Schellekens, A. F.:Hooijmans, C. R.</t>
+  </si>
+  <si>
+    <t>Ibogaine and addiction in the animal model, a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>M. P. G.-O. Benavides-Castellanos, N.:Linero, I.</t>
+  </si>
+  <si>
+    <t>Effectiveness of mesenchymal stem cell-conditioned medium in bone regeneration in animal and human models: a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>P. M. S. Bennett, S. K.:Dretzke, J.:Bem, D.:Penn-Barwell, J. G.</t>
+  </si>
+  <si>
+    <t>Preclinical therapies to prevent or treat fracture non-union: A systematic review</t>
+  </si>
+  <si>
+    <t>F. G. Bert, M. R.:Camussi, E.:Pieve, G.:Voglino, G.:Siliquini, R.</t>
+  </si>
+  <si>
+    <t>Animal assisted intervention: A systematic review of benefits and risks</t>
+  </si>
+  <si>
+    <t>J. N. Bhatti, B.:Akhtar, U.:Rhind, S. G.:Tien, H.:Nathens, A.:da Luz, L. T.</t>
+  </si>
+  <si>
+    <t>Systematic Review of Human and Animal Studies Examining the Efficacy and Safety of N-Acetylcysteine (NAC) and N-Acetylcysteine Amide (NACA) in Traumatic Brain Injury: Impact on Neurofunctional Outcome and Biomarkers of Oxidative Stress and Inflammation</t>
+  </si>
+  <si>
+    <t>V. L. M. Brelsford, K.:Gee, N. R.:Pfeffer, K.</t>
+  </si>
+  <si>
+    <t>Animal-Assisted Interventions in the Classroom-A Systematic Review</t>
+  </si>
+  <si>
+    <t>D. I. P. Bromage, J. M.:Rossello, X.:Ziff, O. J.:Burke, N.:Yellon, D. M.:Davidson, S. M.</t>
+  </si>
+  <si>
+    <t>Remote ischaemic conditioning reduces infarct size in animal in vivo models of ischaemia-reperfusion injury: a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>H. K. t. B. Bronsveld, B.:Karlstad, O.:Vestergaard, P.:Starup-Linde, J.:Bazelier, M. T.:De Bruin, M. L.:de Boer, A.:Siezen, C. L.:van de Water, B.:van der Laan, J. W.:Schmidt, M. K.</t>
+  </si>
+  <si>
+    <t>Treatment with insulin (analogues) and breast cancer risk in diabetics; a systematic review and meta-analysis of in vitro, animal and human evidence</t>
+  </si>
+  <si>
+    <t>A. M. Brun, N.:Colombier, M. L.:Dursun, E.</t>
+  </si>
+  <si>
+    <t>Emerging Nanotechnology in Non-Surgical Periodontal Therapy in Animal Models: A Systematic Review</t>
+  </si>
+  <si>
+    <t>G. P. Brunello, S.:Schiavon, L.:Sivolella, S.:Biasetto, L.:Del Fabbro, M.</t>
+  </si>
+  <si>
+    <t>The Impact of Bioceramic Scaffolds on Bone Regeneration in Preclinical In Vivo Studies: A Systematic Review</t>
+  </si>
+  <si>
+    <t>L. M. S. Busch, J.:Cui, X.:Eichacker, P. Q.:Torabi-Parizi, P.</t>
+  </si>
+  <si>
+    <t>Checkpoint inhibitor therapy in preclinical sepsis models: a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>C. Q. B. Camargo, H. S.:Nunes, E. A.</t>
+  </si>
+  <si>
+    <t>Effects of cotreatment with omega-3 polyunsaturated fatty acids and anticancer agents on oxidative stress parameters: a systematic review of in vitro, animal, and human studies</t>
+  </si>
+  <si>
+    <t>A. P. Carla, B.:Boukail, H.:Audard, J.:Pinol-Domenech, N.:De Carvalho, M.:Blondonnet, R.:Zhai, R.:Morand, D.:Lambert, C.:Sapin, V.:Ware, L. B.:Calfee, C. S.:Bastarache, J. A.:Laffey, J. G.:Juffermans, N. P.:Bos, L. D.:Artigas, A.:Rocco, P. R. M.:Matthay, M. A.:McAuley, D. F.:Constantin, J. M.:Jabaudon, M.:Esicm Translational Biology Group of the Acute Respiratory Failure section</t>
+  </si>
+  <si>
+    <t>Acute respiratory distress syndrome subphenotypes and therapy responsive traits among preclinical models: protocol for a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>T. A.-M. Chalvon-Demersay, D.:Arfsten, J.:Egli, L.:Gaudichon, C.:Karagounis, L. G.:Tome, D.</t>
+  </si>
+  <si>
+    <t>A Systematic Review of the Effects of Plant Compared with Animal Protein Sources on Features of Metabolic Syndrome</t>
+  </si>
+  <si>
+    <t>J. Y. Chen, C.:Guo, B.:Sena, E. S.:Macleod, M. R.:Yuan, Y.:Hirst, T. C.</t>
+  </si>
+  <si>
+    <t>The Efficacy of Trastuzumab in Animal Models of Breast Cancer: A Systematic Review and Meta-Analysis</t>
+  </si>
+  <si>
+    <t>Y. L. Chen, L.:Su, G.:Han, M.:Fan, X.:Xun, P.:Xu, G.</t>
+  </si>
+  <si>
+    <t>Effect of Intermittent versus Chronic Calorie Restriction on Tumor Incidence: A Systematic Review and Meta-Analysis of Animal Studies</t>
+  </si>
+  <si>
+    <t>A. G. Cheok, T. W.:Rodriguez-Mateos, A.:Caton, P. W.</t>
+  </si>
+  <si>
+    <t>The effects of betalain-rich cacti (dragon fruit and cactus pear) on endothelial and vascular function: a systematic review of animal and human studies</t>
+  </si>
+  <si>
+    <t>K. L. O.-A. Chin, R.:Hopper, I.:von Lueder, T. G.:Reid, C. M.:Zoungas, S.:Wang, B. H.:Liew, D.</t>
+  </si>
+  <si>
+    <t>Potential mechanisms underlying the cardiovascular benefits of sodium glucose cotransporter 2 inhibitors: a systematic review of data from preclinical studies</t>
+  </si>
+  <si>
+    <t>S. C. Choe, M.:Jerng, U. M.:Lee, J. H.</t>
+  </si>
+  <si>
+    <t>The Efficacy and Underlying Mechanism of Moxibustion in Preventing Cognitive Impairment: A Systematic Review of Animal Studies</t>
+  </si>
+  <si>
+    <t>K. T. W. Chorath, M. J.:Morton-Gonzaba, N.:Humann, W. J.:Moreira, A.</t>
+  </si>
+  <si>
+    <t>Mesenchymal stem cells for sensorineural hearing loss: protocol for a systematic review of preclinical studies</t>
+  </si>
+  <si>
+    <t>I. G. Christodoulou, M.:Devetzi, M.:Panagiotidis, M.:Koliakos, G.:Zoumpourlis, V.</t>
+  </si>
+  <si>
+    <t>Mesenchymal stem cells in preclinical cancer cytotherapy: a systematic review</t>
+  </si>
+  <si>
+    <t>S. M. Cirmi, A.:Ferlazzo, N.:Gangemi, S.:Calapai, G.:Schumacher, U.:Navarra, M.</t>
+  </si>
+  <si>
+    <t>Anticancer Potential of Citrus Juices and Their Extracts: A Systematic Review of Both Preclinical and Clinical Studies</t>
+  </si>
+  <si>
+    <t>T. P. C. Clyde, M.:Jones, C.:Kilgannon, H.:Fuller, B. M.:Trzeciak, S.:Roberts, B. W.</t>
+  </si>
+  <si>
+    <t>Effects of hypercapnia in sepsis: protocol for a systematic review of clinical and preclinical data</t>
+  </si>
+  <si>
+    <t>N. R. Cosic, D. J.:Stelfox, H. T.</t>
+  </si>
+  <si>
+    <t>Efficacy and safety of damage control in experimental animal models of injury: protocol for a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>A. P. M. Cossu, P.:De Giudici, L. M.:Puddu, D.:Pasin, L.:Evangelista, M.:Xanthos, T.:Musu, M.:Finco, G.</t>
+  </si>
+  <si>
+    <t>Vasopressin in hemorrhagic shock: a systematic review and meta-analysis of randomized animal trials</t>
+  </si>
+  <si>
+    <t>E. A. Cottrill, A. K.:Lessing, N.:Pennington, Z.:Ishida, W.:Perdomo-Pantoja, A.:Lo, S. F.:Howell, E.:Holmes, C.:Goodwin, C. R.:Theodore, N.:Sciubba, D. M.:Witham, T. F.</t>
+  </si>
+  <si>
+    <t>Investigational growth factors utilized in animal models of spinal fusion: Systematic review</t>
+  </si>
+  <si>
+    <t>H. J. H. Cui, H. Y.:Yang, A. L.:Zhou, H. J.:Wang, C.:Luo, J. K.:Lin, Y.:Tang, T.</t>
+  </si>
+  <si>
+    <t>Efficacy of deferoxamine in animal models of intracerebral hemorrhage: a systematic review and stratified meta-analysis</t>
+  </si>
+  <si>
+    <t>G. L. A.-S. Currie, H. N.:Colvin, L.:Cramond, F.:Hair, K.:Khandoker, L.:Liao, J.:Macleod, M.:McCann, S. K.:Morland, R.:Sherratt, N.:Stewart, R.:Tanriver-Ayder, E.:Thomas, J.:Wang, Q.:Wodarski, R.:Xiong, R.:Rice, A. S. C.:Sena, E. S.</t>
+  </si>
+  <si>
+    <t>Animal models of chemotherapy-induced peripheral neuropathy: A machine-assisted systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>S. C. H. Daeschler, L.:Schoenle, P.:Boecker, A.:Kneser, U.:Bergmeister, K. D.</t>
+  </si>
+  <si>
+    <t>Ultrasound and shock-wave stimulation to promote axonal regeneration following nerve surgery: a systematic review and meta-analysis of preclinical studies</t>
+  </si>
+  <si>
+    <t>C. M. Dave, A.:Doxtator, E.:Mei, S. H. J.:Sullivan, K.:Wolfe, D.:Champagne, J.:McIntyre, L.</t>
+  </si>
+  <si>
+    <t>Comparison of freshly cultured versus freshly thawed (cryopreserved) mesenchymal stem cells in preclinical in vivo models of inflammation: a protocol for a preclinical systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>C. K. L. Davis, P. J.:Bahor, Z.:Rajanikant, G. K.:Majid, A.</t>
+  </si>
+  <si>
+    <t>Systematic review and stratified meta-analysis of the efficacy of carnosine in animal models of ischemic stroke</t>
+  </si>
+  <si>
+    <t>R. B. D. de Andrade Teles, T. C.:Costa Pinto, T. C.:de Oliveira Junior, R. G.:Gama, E. Silva M.:de Lavor, E. M.:Fernandes, A. W. C.:de Oliveira, A. P.:de Almeida Ribeiro, F. P. R.:da Silva, A. A. M.:Cavalcante, T. C. F.:Quintans Junior, L. J.:da Silva Almeida, J. R. G.</t>
+  </si>
+  <si>
+    <t>Flavonoids as Therapeutic Agents in Alzheimer's and Parkinson's Diseases: A Systematic Review of Preclinical Evidences</t>
+  </si>
+  <si>
+    <t>F. P. A. de Cassia Israel Cardoso, P.:da Silva Cunha Breder, J.:Paranhos, T.:Ceretta Oliveira, H.:Dini Polidoro, A.:Souza Oliveira Kumakura, A. R.:Melo Lima, M. H.</t>
+  </si>
+  <si>
+    <t>A protocol for systematic review of Plantago major L. effectiveness in accelerating wound-healing in animal models</t>
+  </si>
+  <si>
+    <t>M. S. Q. J. de Melo, S.:Araujo, A. A.:Duarte, M. C.:Bonjardim, L. R.:Nogueira, P. C.:Moraes, V. R.:de Araujo-Junior, J. X.:Ribeiro, E. A.:Quintans-Junior, L. J.</t>
+  </si>
+  <si>
+    <t>A systematic review for anti-inflammatory property of clusiaceae family: a preclinical approach</t>
+  </si>
+  <si>
+    <t>D. P. d. A. S. H. de Sousa, P.:Andrade, L. N.:Andreatini, R.</t>
+  </si>
+  <si>
+    <t>A Systematic Review of the Anxiolytic-Like Effects of Essential Oils in Animal Models</t>
+  </si>
+  <si>
+    <t>C. S. Deckers, P.:Wever, K. E.:Hooijmans, C. R.:Hannink, G.</t>
+  </si>
+  <si>
+    <t>The protective effect of anterior cruciate ligament reconstruction on articular cartilage: a systematic review of animal studies</t>
+  </si>
+  <si>
+    <t>A. J. D. Devasahayam, M. B.:Ploughman, M.</t>
+  </si>
+  <si>
+    <t>The Effects of Aerobic Exercise on the Recovery of Walking Ability and Neuroplasticity in People with Multiple Sclerosis: A Systematic Review of Animal and Clinical Studies</t>
+  </si>
+  <si>
+    <t>B. P. Di Matteo, F.:Gostynska, N.:Kon, E.:Filardo, G.:Marcacci, M.</t>
+  </si>
+  <si>
+    <t>Meniscal Scaffolds - Preclinical Evidence to Support their Use: A Systematic Review</t>
+  </si>
+  <si>
+    <t>U. M. W. Djasim, E. B.:van Neck, J. W.:Weinans, H.:van der Wal, K. G.</t>
+  </si>
+  <si>
+    <t>Recommendations for optimal distraction protocols for various animal models on the basis of a systematic review of the literature</t>
+  </si>
+  <si>
+    <t>P. V. S. Dludla, S.:Orlando, P.:Gabuza, K. B.:Mazibuko-Mbeje, S. E.:Nyambuya, T. M.:Mxinwa, V.:Mokgalaboni, K.:Johnson, R.:Muller, C. J. F.:Tiano, L.:Louw, J.:Nkambule, B. B.</t>
+  </si>
+  <si>
+    <t>Exploring the Comparative Efficacy of Metformin and Resveratrol in the Management of Diabetes-associated Complications: A Systematic Review of Preclinical Studies</t>
+  </si>
+  <si>
+    <t>R. G. O. Dos Santos, F. L.:Crippa, J. A.:Hallak, J. E.</t>
+  </si>
+  <si>
+    <t>Antidepressive and anxiolytic effects of ayahuasca: a systematic literature review of animal and human studies</t>
+  </si>
+  <si>
+    <t>S. A. S. Dos Santos, A. J.:Stancker, T. G.:Simoes, M. C. B.:Dos Santos Vieira, M. A.:Leal-Junior, E. C.:Prokic, M.:Vasconsuelo, A.:Santos, S. S.:de Carvalho, P. T. C.</t>
+  </si>
+  <si>
+    <t>Effects of Photobiomodulation Therapy on Oxidative Stress in Muscle Injury Animal Models: A Systematic Review</t>
+  </si>
+  <si>
+    <t>P. A. Douven, R.:Breukink, S. O.:Melenhorst, J.:Kleijnen, J.:Joosten, E. A.:van Koeveringe, G. A.</t>
+  </si>
+  <si>
+    <t>Sacral Neuromodulation for Lower Urinary Tract and Bowel Dysfunction in Animal Models: A Systematic Review With Focus on Stimulation Parameter Selection</t>
+  </si>
+  <si>
+    <t>N. J. Dvir, M. S.:Jones, N. C.:Powell, K. L.:Kwan, P.:O'Brien, T. J.:Antonic-Baker, A.</t>
+  </si>
+  <si>
+    <t>The effects of cell therapy on seizures in animal models of epilepsy: protocol for systematic review and meta-analysis of preclinical studies</t>
+  </si>
+  <si>
+    <t>E. B. Elliott, O.:Waldron, F. M.:Hardingham, G. E.:Chandran, S.:Gregory, J. M.</t>
+  </si>
+  <si>
+    <t>Therapeutic Targeting of Proteostasis in Amyotrophic Lateral Sclerosis-a Systematic Review and Meta-Analysis of Preclinical Research</t>
+  </si>
+  <si>
+    <t>C. D. Emukah, E.:Naqvi, R.:Martinez, J.:Corral, A.:Moreira, A.:Moreira, A.</t>
+  </si>
+  <si>
+    <t>Mesenchymal stromal cell conditioned media for lung disease: a systematic review and meta-analysis of preclinical studies</t>
+  </si>
+  <si>
+    <t>X. L. Y. Fan, M. L.:Fu, S. P.:Zhuang, Y.:Lu, S. F.</t>
+  </si>
+  <si>
+    <t>Effectiveness of Acupuncture in Treatment of Simple Obesity in Animal Models: A Systematic Review and Meta-Analysis</t>
+  </si>
+  <si>
+    <t>G. K. Filardo, E.:Roffi, A.:Di Matteo, B.:Merli, M. L.:Marcacci, M.</t>
+  </si>
+  <si>
+    <t>Platelet-rich plasma: why intra-articular? A systematic review of preclinical studies and clinical evidence on PRP for joint degeneration</t>
+  </si>
+  <si>
+    <t>C. A. R. Flanders, A. S.:Edwardson, S. A.:Baillie, J. K.:Walsh, T. S.</t>
+  </si>
+  <si>
+    <t>The effect of dexmedetomidine and clonidine on the inflammatory response in critical illness: a systematic review of animal and human studies</t>
+  </si>
+  <si>
+    <t>L. M. C. B. Flynn, C. J.:Macleod, M. R.:Andrews, P. J. D.</t>
+  </si>
+  <si>
+    <t>Alpha Calcitonin Gene-Related Peptide Increases Cerebral Vessel Diameter in Animal Models of Subarachnoid Hemorrhage: A Systematic Review and Meta-analysis</t>
+  </si>
+  <si>
+    <t>L. D. Froese, J.:Gomez, A.:Unger, B.:Zeiler, F. A.</t>
+  </si>
+  <si>
+    <t>The cerebrovascular response to norepinephrine: A scoping systematic review of the animal and human literature</t>
+  </si>
+  <si>
+    <t>H. X. Fu, Z.:Zhang, X. L.:Zheng, G. Q.</t>
+  </si>
+  <si>
+    <t>Kaixinsan, a Well-Known Chinese Herbal Prescription, for Alzheimer's Disease and Depression: A Preclinical Systematic Review</t>
+  </si>
+  <si>
+    <t>A. M. J. Gaikwad, A. A.:Padhye, A. M.:Nadgere, J. B.</t>
+  </si>
+  <si>
+    <t>Autogenous bone ring for vertical bone augmentation procedure with simultaneous implant placement: A systematic review of histologic and histomorphometric outcomes in animal studies</t>
+  </si>
+  <si>
+    <t>R. B. Galinsky, L.:Groenendaal, F.:Lear, C. A.:Tan, S.:van Bel, F.:Juul, S. E.:Robertson, N. J.:Mallard, C.:Gunn, A. J.</t>
+  </si>
+  <si>
+    <t>Magnesium is not consistently neuroprotective for perinatal hypoxia-ischemia in term-equivalent models in preclinical studies: a systematic review</t>
+  </si>
+  <si>
+    <t>M. Z. Ge, Y.:Hao, Q.:Zhao, Y.:Dong, B.</t>
+  </si>
+  <si>
+    <t>Effects of mesenchymal stem cells transplantation on cognitive deficits in animal models of Alzheimer's disease: A systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>C. L. M. Gibson, S. P.</t>
+  </si>
+  <si>
+    <t>Benefits of histone deacetylase inhibitors for acute brain injury: a systematic review of animal studies</t>
+  </si>
+  <si>
+    <t>D. M.-M. Gonzalez-Quevedo, I.:Campos, A.:Campos, F.:Carriel, V.</t>
+  </si>
+  <si>
+    <t>Tissue engineering strategies for the treatment of tendon injuries: a systematic review and meta-analysis of animal models</t>
+  </si>
+  <si>
+    <t>D. C. Grotto, I. F.:Kodaira, K.:Mazzei, L. G.:Castro, J.:Vieira, R. A. L.:Bergamaschi, C. C.:Lopes, L. C.</t>
+  </si>
+  <si>
+    <t>Effect of mushrooms on obesity in animal models: study protocol for a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>F. Z. He, A.:Feng, S.:Li, Y.:Liu, T.</t>
+  </si>
+  <si>
+    <t>Mesenchymal stem cell therapy for paraquat poisoning: A systematic review and meta-analysis of preclinical studies</t>
+  </si>
+  <si>
+    <t>Y. B. L. He, Y. L.:Chen, Y. M.</t>
+  </si>
+  <si>
+    <t>Comment on "A Preclinical Systematic Review of Ginsenoside-Rg1 in Experimental Parkinson's Disease"</t>
+  </si>
+  <si>
+    <t>comment on paper</t>
+  </si>
+  <si>
+    <t>Y. T. Q. He, Y. N.:Zhang, B. Q.:Li, J. B.:Bao, J.</t>
+  </si>
+  <si>
+    <t>Bioartificial liver support systems for acute liver failure: A systematic review and meta-analysis of the clinical and preclinical literature</t>
+  </si>
+  <si>
+    <t>T. C. V. Hirst, H. M.:Sena, E. S.:Egan, K. J.:Macleod, M. R.:Whittle, I. R.</t>
+  </si>
+  <si>
+    <t>Systematic review and meta-analysis of temozolomide in animal models of glioma: was clinical efficacy predicted?</t>
+  </si>
+  <si>
+    <t>T. C. V. Hirst, H. M.:Conlin, S.:Egan, K. J.:Antonic, A.:Lawson McLean, A.:Macleod, M. R.:Grant, R.:Brennan, P. M.:Sena, E. S.:Whittle, I. R.</t>
+  </si>
+  <si>
+    <t>A systematic review and meta-analysis of gene therapy in animal models of cerebral glioma: why did promise not translate to human therapy?</t>
+  </si>
+  <si>
+    <t>T. C. W. Hirst, R.:Rhodes, J. K.:Macleod, M. R.:Andrews, P. J.</t>
+  </si>
+  <si>
+    <t>Study protocol - A systematic review and meta-analysis of hypothermia in experimental traumatic brain injury: Why have promising animal studies not been replicated in pragmatic clinical trials?</t>
+  </si>
+  <si>
+    <t>K. E. A. Hoagwood, M.:Morrissey, M.:Peth-Pierce, R.</t>
+  </si>
+  <si>
+    <t>Animal-Assisted Therapies for Youth with or at risk for Mental Health Problems: A Systematic Review</t>
+  </si>
+  <si>
+    <t>T. R. N. G. Holder, M. E.:Roberts, D. L.:Somers, T.:Bozkurt, A.</t>
+  </si>
+  <si>
+    <t>A Systematic Literature Review of Animal-Assisted Interventions in Oncology (Part I): Methods and Results</t>
+  </si>
+  <si>
+    <t>A Systematic Literature Review of Animal-Assisted Interventions in Oncology (Part II): Theoretical Mechanisms and Frameworks</t>
+  </si>
+  <si>
+    <t>C. R. G. Hooijmans, F. J.:Ritskes-Hoitinga, M.:Scheffer, G. J.</t>
+  </si>
+  <si>
+    <t>A Systematic Review of the Modifying Effect of Anaesthetic Drugs on Metastasis in Animal Models for Cancer</t>
+  </si>
+  <si>
+    <t>C. R. H. Hooijmans, M.:Schuler, F. A. F.:Good, N.:Good, A.:Baumgartner, L.:Galeno, G.:Schneider, M. P.:Jung, T.:de Vries, R.:Ineichen, B. V.</t>
+  </si>
+  <si>
+    <t>Remyelination promoting therapies in multiple sclerosis animal models: a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>C. R. P.-d. J. Hooijmans, P. C.:de Vries, R. B.:Ritskes-Hoitinga, M.</t>
+  </si>
+  <si>
+    <t>The effects of long-term omega-3 fatty acid supplementation on cognition and Alzheimer's pathology in animal models of Alzheimer's disease: a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>J. d. H. Horn, R. J.:Vermeulen, M.:Luiten, P. G.:Limburg, M.</t>
+  </si>
+  <si>
+    <t>Nimodipine in animal model experiments of focal cerebral ischemia: a systematic review</t>
+  </si>
+  <si>
+    <t>C. D. Hossay, J.:Dolmans, M. M.</t>
+  </si>
+  <si>
+    <t>Whole Ovary Cryopreservation and Transplantation: A Systematic Review of Challenges and Research Developments in Animal Experiments and Humans</t>
+  </si>
+  <si>
+    <t>S. D. Hussein, B.:Willmund, G. D.:Ibrahim, M. A. A.:Himmerich, H.</t>
+  </si>
+  <si>
+    <t>A Systematic Review of Tumor Necrosis Factor-alpha in Post-Traumatic Stress Disorder: Evidence from Human and Animal Studies</t>
+  </si>
+  <si>
+    <t>K. K. G. Jakobsen, C.:Jensen, D. H.:Fischer-Nielsen, A.:Hjuler, T.:von Buchwald, C.</t>
+  </si>
+  <si>
+    <t>Mesenchymal stem cell therapy for laryngotracheal stenosis: A systematic review of preclinical studies</t>
+  </si>
+  <si>
+    <t>S. J. E. Jansen Of Lorkeers, J. E.:Vesterinen, H. M.:van der Spoel, T. I.:Sena, E. S.:Duckers, H. J.:Doevendans, P. A.:Macleod, M. R.:Chamuleau, S. A.</t>
+  </si>
+  <si>
+    <t>Similar effect of autologous and allogeneic cell therapy for ischemic heart disease: systematic review and meta-analysis of large animal studies</t>
+  </si>
+  <si>
+    <t>X. F. Jiang, L.:Pan, M.:Gao, Y.</t>
+  </si>
+  <si>
+    <t>Optimizing Livers for Transplantation Using Machine Perfusion versus Cold Storage in Large Animal Studies and Human Studies: A Systematic Review and Meta-Analysis</t>
+  </si>
+  <si>
+    <t>K. D. Jie, P.:Cao, H.:Feng, W.:Chen, J.:Zeng, Y.</t>
+  </si>
+  <si>
+    <t>Prosthesis design of animal models of periprosthetic joint infection following total knee arthroplasty: A systematic review</t>
+  </si>
+  <si>
+    <t>T. Y. R. Jin, P. Q.:Liang, H. Y.:Zhang, P. P.:Zheng, G. Q.:Lin, Y.</t>
+  </si>
+  <si>
+    <t>Clinical and Preclinical Systematic Review of Panax ginseng C. A. Mey and Its Compounds for Fatigue</t>
+  </si>
+  <si>
+    <t>M. G. R. Jones, S. M.:Cotton, S. M.</t>
+  </si>
+  <si>
+    <t>Incorporating animal-assisted therapy in mental health treatments for adolescents: A systematic review of canine assisted psychotherapy</t>
+  </si>
+  <si>
+    <t>S. J. M. Jonker, T. P.:Warle, M. C.:Ritskes-Hoitinga, M.:Wever, K. E.</t>
+  </si>
+  <si>
+    <t>Preclinical Evidence for the Efficacy of Ischemic Postconditioning against Renal Ischemia-Reperfusion Injury, a Systematic Review and Meta-Analysis</t>
+  </si>
+  <si>
+    <t>J. T. Juschten, P. R.:Juffermans, N. P.:Dixon, B.:Levi, M.:Schultz, M. J.</t>
+  </si>
+  <si>
+    <t>Nebulized anticoagulants in lung injury in critically ill patients-an updated systematic review of preclinical and clinical studies</t>
+  </si>
+  <si>
+    <t>A. D. T. Kandhare, P. A.:Wangikar, P.:Bodhankar, S. L.</t>
+  </si>
+  <si>
+    <t>A systematic literature review of fenugreek seed toxicity by using ToxRTool: evidence from preclinical and clinical studies</t>
+  </si>
+  <si>
+    <t>M. Z. K. Karagulle, M.</t>
+  </si>
+  <si>
+    <t>Effects of drinking natural hydrogen sulfide (H2S) waters: a systematic review of in vivo animal studies</t>
+  </si>
+  <si>
+    <t>K. P. Ker, P.:Blackhall, K.</t>
+  </si>
+  <si>
+    <t>Beta-2 receptor antagonists for traumatic brain injury: a systematic review of controlled trials in animal models</t>
+  </si>
+  <si>
+    <t>K. E.-K. Khalaf, M.:Mustafa, S.:Al Kawas, S.</t>
+  </si>
+  <si>
+    <t>Effectiveness of technology-enhanced teaching and assessment methods of undergraduate preclinical dental skills: a systematic review of randomized controlled clinical trials</t>
+  </si>
+  <si>
+    <t>S. A. I. Khan, M. A.:Sayeed, M. A.:Shaikat, A. H.:Hassan, M. M.</t>
+  </si>
+  <si>
+    <t>Antimicrobial resistance pattern in domestic animal - wildlife - environmental niche via the food chain to humans with a Bangladesh perspective; a systematic review</t>
+  </si>
+  <si>
+    <t>G. S. G. Kienle, A.:Schink, M.:Kiene, H.</t>
+  </si>
+  <si>
+    <t>Viscum album L. extracts in breast and gynaecological cancers: a systematic review of clinical and preclinical research</t>
+  </si>
+  <si>
+    <t>S. G. R. Kim, S. I.</t>
+  </si>
+  <si>
+    <t>Enamel matrix derivative for replanted teeth in animal models: a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>S. R. L. Kim, H. W.:Jun, J. H.:Ko, B. S.</t>
+  </si>
+  <si>
+    <t>Effects of Herbal Medicine (Gan Mai Da Zao Decoction) on Several Types of Neuropsychiatric Disorders in an Animal Model: A Systematic Review: Herbal medicine for animal studies of neuropsychiatric diseases</t>
+  </si>
+  <si>
+    <t>R. K. Knackstedt, T.:Gatherwright, J.</t>
+  </si>
+  <si>
+    <t>The role of topical probiotics in skin conditions: A systematic review of animal and human studies and implications for future therapies</t>
+  </si>
+  <si>
+    <t>K. H. Kniha, N.:Weber, E.:Mohlhenrich, S. C.:Holzle, F.:Modabber, A.</t>
+  </si>
+  <si>
+    <t>Temperature Threshold Values of Bone Necrosis for Thermo-Explantation of Dental Implants-A Systematic Review on Preclinical In Vivo Research</t>
+  </si>
+  <si>
+    <t>Y. O. Koga, A.</t>
+  </si>
+  <si>
+    <t>Systematic Review of Patient-Derived Xenograft Models for Preclinical Studies of Anti-Cancer Drugs in Solid Tumors</t>
+  </si>
+  <si>
+    <t>E. R. Kon, A.:Filardo, G.:Tesei, G.:Marcacci, M.</t>
+  </si>
+  <si>
+    <t>Scaffold-based cartilage treatments: with or without cells? A systematic review of preclinical and clinical evidence</t>
+  </si>
+  <si>
+    <t>J. V. d. W. Korpershoek, T. S.:Hagmeijer, M. H.:Vonk, L. A.:Saris, D. B.</t>
+  </si>
+  <si>
+    <t>Cell-Based Meniscus Repair and Regeneration: At the Brink of Clinical Translation?: A Systematic Review of Preclinical Studies</t>
+  </si>
+  <si>
+    <t>C. W. Koster, K. E.:Wagstaff, P. E.:Hirk, Ktvd:Hooijmans, C. R.:Bergen, A. A.</t>
+  </si>
+  <si>
+    <t>A Systematic Review on Transplantation Studies of the Retinal Pigment Epithelium in Animal Models</t>
+  </si>
+  <si>
+    <t>W. C. Krause Neto, A. P.:Anaruma, C. A.:de Souza, R. R.:Gama, E. F.</t>
+  </si>
+  <si>
+    <t>Effects of exercise on neuromuscular junction components across age: systematic review of animal experimental studies</t>
+  </si>
+  <si>
+    <t>H. G. Kwan, L.:Liu, H. L.:Cao, M.:Desrochers, A.:Fecteau, G.:Burns, P.:Frasch, M. G.</t>
+  </si>
+  <si>
+    <t>Vagus Nerve Stimulation for Treatment of Inflammation: Systematic Review of Animal Models and Clinical Studies</t>
+  </si>
+  <si>
+    <t>R. L. L. Kwan, S.:Choi, H. M.:Kloth, L. C.:Cheing, G. L.</t>
+  </si>
+  <si>
+    <t>Efficacy of Biophysical Energies on Healing of Diabetic Skin Wounds in Cell Studies and Animal Experimental Models: A Systematic Review</t>
+  </si>
+  <si>
+    <t>M. M. M. Lalu, D.:Marshall, J.:Fergusson, D.:Mei, S. H.:Macleod, M.:Griffin, G.:Turgeon, A. F.:Rudnicki, M.:Fishman, J.:Avey, M. T.:Skidmore, B.:Grimshaw, J. M.:Stewart, D. J.:Singh, K.:McIntyre, L.:Canadian Critical Care Translational Biology, Group</t>
+  </si>
+  <si>
+    <t>Efficacy and safety of mesenchymal stromal cells in preclinical models of acute lung injury: a systematic review protocol</t>
+  </si>
+  <si>
+    <t>M. J. C. Lambrechts, J. L.</t>
+  </si>
+  <si>
+    <t>Nonsteroidal Anti-Inflammatory Drugs and Their Neuroprotective Role After an Acute Spinal Cord Injury: A Systematic Review of Animal Models</t>
+  </si>
+  <si>
+    <t>S. H. v. d. N. Lee, M.:Bosch, P.:Lim, S.</t>
+  </si>
+  <si>
+    <t>Sex differences in acupuncture effectiveness in animal models of Parkinson's disease: a systematic review</t>
+  </si>
+  <si>
+    <t>C. H. C. K. Leenaars, C.:Stafleu, F. R.:Bleich, A.:Ritskes-Hoitinga, M.:De Vries, R. B. M.:Meijboom, F. L. B.</t>
+  </si>
+  <si>
+    <t>Animal to human translation: a systematic scoping review of reported concordance rates</t>
+  </si>
+  <si>
+    <t>C. S. Leenaars, F.:de Jong, D.:van Berlo, M.:Geurts, T.:Coenen-de Roo, T.:Prins, J. B.:Kempkes, R.:Elzinga, J.:Bleich, A.:de Vries, R.:Meijboom, F.:Ritskes-Hoitinga, M.</t>
+  </si>
+  <si>
+    <t>A Systematic Review Comparing Experimental Design of Animal and Human Methotrexate Efficacy Studies for Rheumatoid Arthritis: Lessons for the Translational Value of Animal Studies</t>
+  </si>
+  <si>
+    <t>Y. F. Li, S. C.:Cheuk, Y. C.:Song, G.:Feng, H.:Yung, S. H.</t>
+  </si>
+  <si>
+    <t>The non-reconstructive treatment of complete ACL tear with biological enhancement in clinical and preclinical studies: A systematic review</t>
+  </si>
+  <si>
+    <t>Y. S. Li, J. F.:Cui, X.:Mani, H.:Danner, R. L.:Li, X.:Su, J. W.:Fitz, Y.:Eichacker, P. Q.</t>
+  </si>
+  <si>
+    <t>The effect of heparin administration in animal models of sepsis: a prospective study in Escherichia coli-challenged mice and a systematic review and metaregression analysis of published studies</t>
+  </si>
+  <si>
+    <t>Y. X. Li, W. D.:Van der Merwe, L.:Dai, W. T.:Lin, C.</t>
+  </si>
+  <si>
+    <t>Efficacy of stem cell therapy for burn wounds: a systematic review and meta-analysis of preclinical studies</t>
+  </si>
+  <si>
+    <t>G. Z. Liao, K.:Shorr, R.:Allan, D. S.</t>
+  </si>
+  <si>
+    <t>Human endothelial colony-forming cells in regenerative therapy: A systematic review of controlled preclinical animal studies</t>
+  </si>
+  <si>
+    <t>H. v. S. Liu, S.:Gielen, M.:Vercoulen, T.:Melenhorst, J.:Winkens, B.:Bouvy, N. D.</t>
+  </si>
+  <si>
+    <t>Comparison of coated meshes for intraperitoneal placement in animal studies: a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>S. X. Liu, X.:Hua, T.:Shi, R.:Chi, S.:Jin, Z.:Wang, H.</t>
+  </si>
+  <si>
+    <t>Efficacy of Anti-VEGF/VEGFR Agents on Animal Models of Endometriosis: A Systematic Review and Meta-Analysis</t>
+  </si>
+  <si>
+    <t>X. F. Liu, Q.:Kim, H.</t>
+  </si>
+  <si>
+    <t>Preclinical Studies of Mesenchymal Stem Cell (MSC) Administration in Chronic Obstructive Pulmonary Disease (COPD): A Systematic Review and Meta-Analysis</t>
+  </si>
+  <si>
+    <t>I. K. G. Lodoso-Torrecilla, R.:Grosfeld, E. C.:de Vries, R. B. M.:Habibovic, P.:Jansen, J. A.:van den Beucken, Jjjp</t>
+  </si>
+  <si>
+    <t>Bioinorganic supplementation of calcium phosphate-based bone substitutes to improve in vivo performance: a systematic review and meta-analysis of animal studies</t>
+  </si>
+  <si>
+    <t>D. L. F. Longo, A. C.:Kuchler, E. C.:Paula-Silva, F. W. G.:Nelson-Filho, P.:Silva, L. A. B.</t>
+  </si>
+  <si>
+    <t>Efficiency of different storage media for avulsed teeth in animal models: a systematic review</t>
+  </si>
+  <si>
+    <t>V. B. Luks, A.:Turner, L.:Pakhale, S.</t>
+  </si>
+  <si>
+    <t>Effect of physical training on airway inflammation in animal models of asthma: a systematic review</t>
+  </si>
+  <si>
+    <t>M. Z. Lv, X.:Wang, H.:Wang, F.:Guan, W.</t>
+  </si>
+  <si>
+    <t>Roles of caloric restriction, ketogenic diet and intermittent fasting during initiation, progression and metastasis of cancer in animal models: a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>N. J. M. MacDougall, K. W.</t>
+  </si>
+  <si>
+    <t>Hyperglycaemia and infarct size in animal models of middle cerebral artery occlusion: systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>A. M. L. Marques, B. S.:Dias Novaes, R.:Freitas, M. B.:Sarandy, M. M.:Goncalves, R. V.</t>
+  </si>
+  <si>
+    <t>Effects of the amount and type of carbohydrates used in type 2 diabetes diets in animal models: A systematic review</t>
+  </si>
+  <si>
+    <t>M. I. W. Martic-Kehl, J.:Folkers, G.:Schubiger, P. A.</t>
+  </si>
+  <si>
+    <t>Quality of Animal Experiments in Anti-Angiogenic Cancer Drug Development--A Systematic Review</t>
+  </si>
+  <si>
+    <t>R. L.-J. Martinez, M.:Wanden-Berghe, C.:Sanz-Valero, J.:Porres, J. M.:Kapravelou, G.</t>
+  </si>
+  <si>
+    <t>Beneficial effects of legumes on parameters of the metabolic syndrome: a systematic review of trials in animal models</t>
+  </si>
+  <si>
+    <t>G. H. C. P. Martins, J.:D. E. Campos VHK:Bonorino, K. C.:Hizume Kunzler, D. C.</t>
+  </si>
+  <si>
+    <t>Effects of physical exercise on lung inflammation in animal models of chronic allergic lung inflammation: a systematic review</t>
+  </si>
+  <si>
+    <t>Retracted</t>
+  </si>
+  <si>
+    <t>Y. A. T. Martins, C. J.:Antoniassi, P.:Demarchi, I. G.</t>
+  </si>
+  <si>
+    <t>Efficacy and Safety of the Immunization with DNA for Alzheimer's Disease in Animal Models: A Systematic Review from Literature</t>
+  </si>
+  <si>
+    <t>N. R. J. Matthan, H.:Chung, M.:Lichtenstein, A. H.:Lathrop, D. A.:Lau, J.</t>
+  </si>
+  <si>
+    <t>A systematic review and meta-analysis of the impact of omega-3 fatty acids on selected arrhythmia outcomes in animal models</t>
+  </si>
+  <si>
+    <t>S. K. C. McCann, F.:Macleod, M. R.:Sena, E. S.</t>
+  </si>
+  <si>
+    <t>Systematic Review and Meta-Analysis of the Efficacy of Interleukin-1 Receptor Antagonist in Animal Models of Stroke: an Update</t>
+  </si>
+  <si>
+    <t>S. K. I. McCann, C.:Mead, G. E.:Sena, E. S.:Currie, G. L.:Egan, K. E.:Macleod, M. R.:Howells, D. W.</t>
+  </si>
+  <si>
+    <t>Efficacy of antidepressants in animal models of ischemic stroke: a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>M. S. B. McHenry, K. A.:McDonald, B. C.:Vreeman, R. C.:Whipple, E. C.:Serghides, L.</t>
+  </si>
+  <si>
+    <t>In utero exposure to HIV and/or antiretroviral therapy: a systematic review of preclinical and clinical evidence of cognitive outcomes</t>
+  </si>
+  <si>
+    <t>L. A. M. McIntyre, D.:Fergusson, D. A.:Sullivan, K. J.:Mei, S. H.:Lalu, M.:Marshall, J.:McLeod, M.:Griffin, G.:Grimshaw, J.:Turgeon, A.:Avey, M. T.:Rudnicki, M. A.:Jazi, M.:Fishman, J.:Stewart, D. J.:Canadian Critical Care Translational Biology, Group</t>
+  </si>
+  <si>
+    <t>Efficacy of Mesenchymal Stromal Cell Therapy for Acute Lung Injury in Preclinical Animal Models: A Systematic Review</t>
+  </si>
+  <si>
+    <t>A. N. T. Mekuria, A. K.:Hagos, B.:Sisay, M.:Abdela, J.:Mishore, K. M.:Motbaynor, B.</t>
+  </si>
+  <si>
+    <t>Anti-Cancer Effects of Lycopene in Animal Models of Hepatocellular Carcinoma: A Systematic Review and Meta-Analysis</t>
+  </si>
+  <si>
+    <t>M. D. M. Menting, S.:van de Beek, C.:Frick, C. J.:Ozanne, S. E.:Limpens, J.:Roseboom, T. J.:Hooijmans, C. R.:van Deutekom, A. W.:Painter, R. C.</t>
+  </si>
+  <si>
+    <t>Maternal obesity in pregnancy impacts offspring cardiometabolic health: Systematic review and meta-analysis of animal studies</t>
+  </si>
+  <si>
+    <t>V. V. i. S. Mielgo, A.:Rey-Santano, C.</t>
+  </si>
+  <si>
+    <t>Dobutamine in paediatric population: a systematic review in juvenile animal models</t>
+  </si>
+  <si>
+    <t>T. R. Mihic, D.:Wilby, K. J.:Pawluk, S. A.</t>
+  </si>
+  <si>
+    <t>The Therapeutic Effects of Camel Milk: A Systematic Review of Animal and Human Trials</t>
+  </si>
+  <si>
+    <t>M. Y. O. H.-B. Misawa, G.:Villar, G. M.:Villar, C. C.</t>
+  </si>
+  <si>
+    <t>Efficacy of stem cells on the healing of peri-implant defects: systematic review of preclinical studies</t>
+  </si>
+  <si>
+    <t>J. G. Monteiro, F. P. S.:Troulis, M. J.:McCain, J. P.:Vasconcelos, Bcde</t>
+  </si>
+  <si>
+    <t>Induction, Treatment, and Prevention of Temporomandibular Joint Ankylosis-A Systematic Review of Comparative Animal Studies</t>
+  </si>
+  <si>
+    <t>A. B. Moore, J.:Hong, M. Y.</t>
+  </si>
+  <si>
+    <t>Resveratrol and Depression in Animal Models: A Systematic Review of the Biological Mechanisms</t>
+  </si>
+  <si>
+    <t>A. N. Moreira, R.:Hall, K.:Emukah, C.:Martinez, J.:Moreira, A.:Dittmar, E.:Zoretic, S.:Evans, M.:Moses, D.:Mustafa, S.</t>
+  </si>
+  <si>
+    <t>Effects of mesenchymal stromal cell-conditioned media on measures of lung structure and function: a systematic review and meta-analysis of preclinical studies</t>
+  </si>
+  <si>
+    <t>C. M. R. S. Morillo, M. C.:Goncalves, F.:Villar, C. C.</t>
+  </si>
+  <si>
+    <t>Efficacy of stem cells on bone consolidation of distraction osteogenesis in animal models: a systematic review</t>
+  </si>
+  <si>
+    <t>J. T. Moro, D.:Schmidely, P.:Demersay, T. C.:Azzout-Marniche, D.</t>
+  </si>
+  <si>
+    <t>Histidine: A Systematic Review on Metabolism and Physiological Effects in Human and Different Animal Species</t>
+  </si>
+  <si>
+    <t>S. V. Najidh, H. H.:Buijs, J. T.</t>
+  </si>
+  <si>
+    <t>A systematic review on the effects of direct oral anticoagulants on cancer growth and metastasis in animal models</t>
+  </si>
+  <si>
+    <t>D. N. D. Naumann, J.:Hutchings, S.:Midwinter, M. J.</t>
+  </si>
+  <si>
+    <t>Protocol for a systematic review of the impact of resuscitation fluids on the microcirculation after haemorrhagic shock in animal models</t>
+  </si>
+  <si>
+    <t>L. D. V. Noorlag, F. Y.:Kok, A.:Broekman, M. L. D.:Seute, T.:Robe, P. A.:Snijders, T. J.</t>
+  </si>
+  <si>
+    <t>Treatment of malignant gliomas with ketogenic or caloric restricted diets: A systematic review of preclinical and early clinical studies</t>
+  </si>
+  <si>
+    <t>E. R.-U. Nova, N.:Martinez-Garcia, R. M.:Gomez-Martinez, S.:Diaz-Prieto, L. E.:Marcos, A.</t>
+  </si>
+  <si>
+    <t>Potential of Moringa oleifera to Improve Glucose Control for the Prevention of Diabetes and Related Metabolic Alterations: A Systematic Review of Animal and Human Studies</t>
+  </si>
+  <si>
+    <t>L. P. S. Nucci, H. R.:Giampaoli, V.:Mamani, J. B.:Nucci, M. P.:Gamarra, L. F.</t>
+  </si>
+  <si>
+    <t>Stem cells labeled with superparamagnetic iron oxide nanoparticles in a preclinical model of cerebral ischemia: a systematic review with meta-analysis</t>
+  </si>
+  <si>
+    <t>V. E. M. O'Collins, M. R.:Cox, S. F.:Van Raay, L.:Aleksoska, E.:Donnan, G. A.:Howells, D. W.</t>
+  </si>
+  <si>
+    <t>Preclinical drug evaluation for combination therapy in acute stroke using systematic review, meta-analysis, and subsequent experimental testing</t>
+  </si>
+  <si>
+    <t>M. E. G. O'Haire, N. A.:Kirkham, A. C.</t>
+  </si>
+  <si>
+    <t>Animal-Assisted Intervention for trauma: a systematic literature review</t>
+  </si>
+  <si>
+    <t>N. G. F. Obonyo, J. P.:Ng, A. S.:Pimenta, L. P.:Shekar, K.:Platts, D. G.:Maitland, K.:Fraser, J. F.</t>
+  </si>
+  <si>
+    <t>Effects of volume resuscitation on the microcirculation in animal models of lipopolysaccharide sepsis: a systematic review</t>
+  </si>
+  <si>
+    <t>D. G. Oehme, T.:Ghosh, P.:Rosenfeld, J. V.:Jenkin, G.</t>
+  </si>
+  <si>
+    <t>Cell-Based Therapies Used to Treat Lumbar Degenerative Disc Disease: A Systematic Review of Animal Studies and Human Clinical Trials</t>
+  </si>
+  <si>
+    <t>B. Y. Park, S.:Cho, W. C. S.:Choi, J. Y.:Lee, M. S.</t>
+  </si>
+  <si>
+    <t>A systematic review of herbal medicines for the treatment of cancer cachexia in animal models</t>
+  </si>
+  <si>
+    <t>H. S. C. Park, J. H.:Kim, K. W.:Chung, W. S.:Song, M. Y.</t>
+  </si>
+  <si>
+    <t>Effects of Panax ginseng on Obesity in Animal Models: A Systematic Review and Meta-Analysis</t>
+  </si>
+  <si>
+    <t>S. B. Park, A.:Kim, S.:Nam, Y.:Kim, H. S.:Yoo, D. H.:Moon, M.</t>
+  </si>
+  <si>
+    <t>Animal-Assisted and Pet-Robot Interventions for Ameliorating Behavioral and Psychological Symptoms of Dementia: A Systematic Review and Meta-Analysis</t>
+  </si>
+  <si>
+    <t>C. H. Pasquinelli, L. G.:Siebner, H. R.:Lee, H. J.:Thielscher, A.</t>
+  </si>
+  <si>
+    <t>Safety of transcranial focused ultrasound stimulation: A systematic review of the state of knowledge from both human and animal studies</t>
+  </si>
+  <si>
+    <t>H. V. Pedder, H. M.:Macleod, M. R.:Wardlaw, J. M.</t>
+  </si>
+  <si>
+    <t>Systematic review and meta-analysis of interventions tested in animal models of lacunar stroke</t>
+  </si>
+  <si>
+    <t>G. S. Penakalapati, J.:Delahoy, M. J.:McAliley, L.:Wodnik, B.:Levy, K.:Freeman, M. C.</t>
+  </si>
+  <si>
+    <t>Exposure to Animal Feces and Human Health: A Systematic Review and Proposed Research Priorities</t>
+  </si>
+  <si>
+    <t>W. S. Peng, J.:Sheng, C.:Wang, Z.:Wang, Y.:Zhang, C.:Fan, R.</t>
+  </si>
+  <si>
+    <t>Systematic review and meta-analysis of efficacy of mesenchymal stem cells on locomotor recovery in animal models of traumatic brain injury</t>
+  </si>
+  <si>
+    <t>F. G. Perdisa, N.:Roffi, A.:Filardo, G.:Marcacci, M.:Kon, E.</t>
+  </si>
+  <si>
+    <t>Adipose-Derived Mesenchymal Stem Cells for the Treatment of Articular Cartilage: A Systematic Review on Preclinical and Clinical Evidence</t>
+  </si>
+  <si>
+    <t>P. R. Perel, I.:Sena, E.:Wheble, P.:Briscoe, C.:Sandercock, P.:Macleod, M.:Mignini, L. E.:Jayaram, P.:Khan, K. S.</t>
+  </si>
+  <si>
+    <t>Comparison of treatment effects between animal experiments and clinical trials: systematic review</t>
+  </si>
+  <si>
+    <t>E. L. M. Peter, A. G.:Nagendrappa, P. B.:Kaligirwa, A.:Sesaazi, C. D.</t>
+  </si>
+  <si>
+    <t>Systematic review and meta-analysis protocol for efficacy and safety of Momordica charantia L. on animal models of type 2 diabetes mellitus</t>
+  </si>
+  <si>
+    <t>N. H.-P. Pfaller-Sadovsky, C.:Cardillo, D.:Medina, L. G.:Friedman, S. G.</t>
+  </si>
+  <si>
+    <t>What's in a Click? The Efficacy of Conditioned Reinforcement in Applied Animal Training: A Systematic Review and Meta-Analysis</t>
+  </si>
+  <si>
+    <t>M. G. T. Piancino, A.:Polimeni, A.:Bramanti, E.:Bramanti, P.</t>
+  </si>
+  <si>
+    <t>Altered mastication adversely impacts morpho-functional features of the hippocampus: A systematic review on animal studies in three different experimental conditions involving the masticatory function</t>
+  </si>
+  <si>
+    <t>L. K. Pimpin, S.:Liu, E.:Shulkin, M.:Karageorgou, D.:Miller, V.:Fawzi, W.:Duggan, C.:Webb, P.:Mozaffarian, D.</t>
+  </si>
+  <si>
+    <t>Effects of animal protein supplementation of mothers, preterm infants, and term infants on growth outcomes in childhood: a systematic review and meta-analysis of randomized trials</t>
+  </si>
+  <si>
+    <t>M. S. Polyakova, M. L.:Elzinga, B. M.:Holiga, S.:Schoenknecht, P.:de Kloet, E. R.:Molendijk, M. L.</t>
+  </si>
+  <si>
+    <t>Brain-Derived Neurotrophic Factor and Antidepressive Effect of Electroconvulsive Therapy: Systematic Review and Meta-Analyses of the Preclinical and Clinical Literature</t>
+  </si>
+  <si>
+    <t>M. W. G. Pot, V. K.:Buma, P.:IntHout, J.:van Kuppevelt, T. H.:de Vries, R. B. M.:Daamen, W. F.</t>
+  </si>
+  <si>
+    <t>Improved cartilage regeneration by implantation of acellular biomaterials after bone marrow stimulation: a systematic review and meta-analysis of animal studies</t>
+  </si>
+  <si>
+    <t>M. W. v. K. Pot, T. H.:Gonzales, V. K.:Buma, P.:IntHout, J.:de Vries, R. B. M.:Daamen, W. F.</t>
+  </si>
+  <si>
+    <t>Augmented cartilage regeneration by implantation of cellular versus acellular implants after bone marrow stimulation: a systematic review and meta-analysis of animal studies</t>
+  </si>
+  <si>
+    <t>I. A. Qamruddin, M. K.:Khamis, M. F.:Husein, A.</t>
+  </si>
+  <si>
+    <t>Minimally Invasive Techniques to Accelerate the Orthodontic Tooth Movement: A Systematic Review of Animal Studies</t>
+  </si>
+  <si>
+    <t>M. B. Ramamoorthi, M.:Jordan, J.:Tran, S. D.</t>
+  </si>
+  <si>
+    <t>Osteogenic Potential of Dental Mesenchymal Stem Cells in Preclinical Studies: A Systematic Review Using Modified ARRIVE and CONSORT Guidelines</t>
+  </si>
+  <si>
+    <t>G. G. P. Regner, P.:Leffa, D. T.:de Oliveira, C.:Vercelino, R.:Fregni, F.:Torres, I. L. S.</t>
+  </si>
+  <si>
+    <t>Preclinical to Clinical Translation of Studies of Transcranial Direct-Current Stimulation in the Treatment of Epilepsy: A Systematic Review</t>
+  </si>
+  <si>
+    <t>D. J. I. Reis, S. S.:Punt, S. E. W.</t>
+  </si>
+  <si>
+    <t>The anxiolytic effect of probiotics: A systematic review and meta-analysis of the clinical and preclinical literature</t>
+  </si>
+  <si>
+    <t>J. F. M. Reis, V. V.:de Souza Gomes, R.:do Carmo, M. M.:da Costa, G. V.:Ribera, P. C.:Monteiro, M. C.</t>
+  </si>
+  <si>
+    <t>Action mechanism and cardiovascular effect of anthocyanins: a systematic review of animal and human studies</t>
+  </si>
+  <si>
+    <t>J. S. Q. Richter, V.:Rouyer, O.:Raul, J. S.:Beaujeux, R.:Geny, B.:Wolff, V.</t>
+  </si>
+  <si>
+    <t>A Systematic Review of the Complex Effects of Cannabinoids on Cerebral and Peripheral Circulation in Animal Models</t>
+  </si>
+  <si>
+    <t>C. M. Rincon-Castanedo, J. S.:Martin-Ruiz, A.:Valenzuela, P. L.:Ramirez, M.:Santos-Lozano, A.:Lucia, A.:Fiuza-Luces, C.</t>
+  </si>
+  <si>
+    <t>Physical exercise effects on metastasis: a systematic review and meta-analysis in animal cancer models</t>
+  </si>
+  <si>
+    <t>A. K. Roffi, G. S.:Gostynska, N.:Kon, E.:Candrian, C.:Filardo, G.</t>
+  </si>
+  <si>
+    <t>The Role of Three-Dimensional Scaffolds in Treating Long Bone Defects: Evidence from Preclinical and Clinical Literature-A Systematic Review</t>
+  </si>
+  <si>
+    <t>A. N. Roffi, N.:Sanchez, M.:Cucchiarini, M.:Filardo, G.</t>
+  </si>
+  <si>
+    <t>Injectable Systems for Intra-Articular Delivery of Mesenchymal Stromal Cells for Cartilage Treatment: A Systematic Review of Preclinical and Clinical Evidence</t>
+  </si>
+  <si>
+    <t>P. J. H. Rogers, P. S.:de Graaf, C.:Higgs, S.:Lluch, A.:Ness, A. R.:Penfold, C.:Perry, R.:Putz, P.:Yeomans, M. R.:Mela, D. J.</t>
+  </si>
+  <si>
+    <t>Does low-energy sweetener consumption affect energy intake and body weight? A systematic review, including meta-analyses, of the evidence from human and animal studies</t>
+  </si>
+  <si>
+    <t>E. D. V. Rooke, H. M.:Sena, E. S.:Egan, K. J.:Macleod, M. R.</t>
+  </si>
+  <si>
+    <t>Dopamine agonists in animal models of Parkinson's disease: a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>N. T. Rose, L.:Pang, D. S.</t>
+  </si>
+  <si>
+    <t>A systematic review of clinical audit in companion animal veterinary medicine</t>
+  </si>
+  <si>
+    <t>F. H. Salehpour, M. R.</t>
+  </si>
+  <si>
+    <t>Photobiomodulation for Parkinson's Disease in Animal Models: A Systematic Review</t>
+  </si>
+  <si>
+    <t>A. S. Santaniello, M.:Fioretti, A.:Menna, L. F.</t>
+  </si>
+  <si>
+    <t>Systematic Review and Meta-Analysis of the Occurrence of ESKAPE Bacteria Group in Dogs, and the Related Zoonotic Risk in Animal-Assisted Therapy, and in Animal-Assisted Activity in the Health Context</t>
+  </si>
+  <si>
+    <t>N. C. Satani, C.:Giridhar, K.:McGhiey, D.:George, S.:Parsha, K.:Nghiem, D. M.:Valenzuela, K. S.:Riecke, J.:Vahidy, F. S.:Savitz, S. I.</t>
+  </si>
+  <si>
+    <t>World-Wide Efficacy of Bone Marrow Derived Mesenchymal Stromal Cells in Preclinical Ischemic Stroke Models: Systematic Review and Meta-Analysis</t>
+  </si>
+  <si>
+    <t>C. R. B.-S. Scardueli, C.:Marcantonio, R. A. C.:Marcantonio, E., Jr.:Stavropoulos, A.:Spin-Neto, R.</t>
+  </si>
+  <si>
+    <t>Systemic administration of strontium ranelate to enhance the osseointegration of implants: systematic review of animal studies</t>
+  </si>
+  <si>
+    <t>M. A. S. Schalla, A.</t>
+  </si>
+  <si>
+    <t>Activity Based Anorexia as an Animal Model for Anorexia Nervosa-A Systematic Review</t>
+  </si>
+  <si>
+    <t>S. H. Schelhaas, K.:Bollineni, V. R.:Kramer, G. M.:Liu, Y.:Waterton, J. C.:Aboagye, E. O.:Shields, A. F.:Soloviev, D.:Jacobs, A. H.</t>
+  </si>
+  <si>
+    <t>Preclinical Applications of 3'-Deoxy-3'-[(18)F]Fluorothymidine in Oncology - A Systematic Review</t>
+  </si>
+  <si>
+    <t>K. G. Schmitz, G.:Tegeder, I.</t>
+  </si>
+  <si>
+    <t>Monoclonal Antibodies in Preclinical EAE Models of Multiple Sclerosis: A Systematic Review</t>
+  </si>
+  <si>
+    <t>F. I. Schwarz, G.:Becker, J.</t>
+  </si>
+  <si>
+    <t>Quality assessment of reporting of animal studies on pathogenesis and treatment of peri-implant mucositis and peri-implantitis. A systematic review using the ARRIVE guidelines</t>
+  </si>
+  <si>
+    <t>D. Y. Seow, Y.:Hutchinson, I. D.:Hurley, E. T.:Shimozono, Y.:Kennedy, J. G.</t>
+  </si>
+  <si>
+    <t>The Subchondral Bone Is Affected by Bone Marrow Stimulation: A Systematic Review of Preclinical Animal Studies</t>
+  </si>
+  <si>
+    <t>C. P. Sheng, W.:Xia, Z. A.:Wang, Y.:Chen, Z.:Su, N.:Wang, Z.</t>
+  </si>
+  <si>
+    <t>The impact of ginsenosides on cognitive deficits in experimental animal studies of Alzheimer's disease: a systematic review</t>
+  </si>
+  <si>
+    <t>C. P. Sheng, W.:Chen, Z.:Cao, Y.:Gong, W.:Xia, Z. A.:Wang, Y.:Su, N.:Wang, Z.</t>
+  </si>
+  <si>
+    <t>Impact of 2, 3, 5, 4'-tetrahydroxystilbene-2-O-beta-D-glucoside on cognitive deficits in animal models of Alzheimer's disease: a systematic review</t>
+  </si>
+  <si>
+    <t>J. L. Shi, Y.:Gu, Y.:Qiao, S.:Zhang, X.:Lai, H.</t>
+  </si>
+  <si>
+    <t>Effect of titanium implants with strontium incorporation on bone apposition in animal models: A systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>Y. H. L. Shi, Y.:Wang, Y.:Xu, Z.:Fu, H.:Zheng, G. Q.</t>
+  </si>
+  <si>
+    <t>Ginsenoside-Rb1 for Ischemic Stroke: A Systematic Review and Meta-analysis of Preclinical Evidence and Possible Mechanisms</t>
+  </si>
+  <si>
+    <t>A. D. Shmagel, R.:Knights, D.:Butler, M.:Langsetmo, L.:Lane, N. E.:Ensrud, K.</t>
+  </si>
+  <si>
+    <t>The Effects of Glucosamine and Chondroitin Sulfate on Gut Microbial Composition: A Systematic Review of Evidence from Animal and Human Studies</t>
+  </si>
+  <si>
+    <t>K. J. Singh, N.:Zomer, R.:Piva, T. J.:Mantri, N.</t>
+  </si>
+  <si>
+    <t>Cannabinoids and Prostate Cancer: A Systematic Review of Animal Studies</t>
+  </si>
+  <si>
+    <t>M. d. V. Sloff, R.:Geutjes, P.:IntHout, J.:Ritskes-Hoitinga, M.:Oosterwijk, E.:Feitz, W.</t>
+  </si>
+  <si>
+    <t>Tissue engineering in animal models for urinary diversion: a systematic review</t>
+  </si>
+  <si>
+    <t>N. H. Soliman, A. G.:Haroutounian, S.:Wever, K.:Rice, A. S. C.:Finn, D. P.</t>
+  </si>
+  <si>
+    <t>A protocol for the systematic review and meta-analysis of studies in which cannabinoids were tested for antinociceptive effects in animal models of pathological or injury-related persistent pain</t>
+  </si>
+  <si>
+    <t>L. X. Song, M. B.:Zhou, X. L.:Zhang, D. P.:Zhang, S. L.:Zheng, G. Q.</t>
+  </si>
+  <si>
+    <t>A Preclinical Systematic Review of Ginsenoside-Rg1 in Experimental Parkinson's Disease</t>
+  </si>
+  <si>
+    <t>N. T. Srour, B.</t>
+  </si>
+  <si>
+    <t>Mesenchymal Stromal Cells in Animal Bleomycin Pulmonary Fibrosis Models: A Systematic Review</t>
+  </si>
+  <si>
+    <t>B. P. Stadlinger, P.:Locher, M. C.:Schulz, M. C.</t>
+  </si>
+  <si>
+    <t>Systematic review of animal models for the study of implant integration, assessing the influence of material, surface and design</t>
+  </si>
+  <si>
+    <t>C. M. Z. Suen, A.:Lalu, M. M.:Welsh, C.:Levac, B. M.:Fergusson, D.:McIntyre, L.:Stewart, D. J.</t>
+  </si>
+  <si>
+    <t>Efficacy and safety of regenerative cell therapy for pulmonary arterial hypertension in animal models: a preclinical systematic review protocol</t>
+  </si>
+  <si>
+    <t>S. B. F. Syarifah-Noratiqah, S.:Zulfarina, M. S.:Nasrullah, Z.:Qodriyah, H. M. S.:Naina-Mohamed, I.</t>
+  </si>
+  <si>
+    <t>The Effects of Palm Oil on Plasma and Serum Lipid Parameters: A Systematic Review on Animal Intervention Studies</t>
+  </si>
+  <si>
+    <t>S. H. S. W. Tan, J. R. Y.:Sim, S. J. Y.:Tjio, C. K. E.:Wong, K. L.:Chew, J. R. J.:Hui, J. H. P.:Toh, W. S.</t>
+  </si>
+  <si>
+    <t>Mesenchymal stem cell exosomes in bone regenerative strategies-a systematic review of preclinical studies</t>
+  </si>
+  <si>
+    <t>K. G. Tanaka, R. F.:Gobbi, L. T.:Galduroz, J. C.</t>
+  </si>
+  <si>
+    <t>Ginkgo biloba extract in an animal model of Parkinson's disease: a systematic review</t>
+  </si>
+  <si>
+    <t>L. A. Z. Tetreault, M. P.:Wilson, J. R.:Karadimas, S. K.:Fehlings, M. G.</t>
+  </si>
+  <si>
+    <t>The Impact of Riluzole on Neurobehavioral Outcomes in Preclinical Models of Traumatic and Nontraumatic Spinal Cord Injury: Results From a Systematic Review of the Literature</t>
+  </si>
+  <si>
+    <t>I. A. S. Tewarie, J. T.:Hulsbergen, A. F. C.:Kremer, S.:Broekman, M. L. D.</t>
+  </si>
+  <si>
+    <t>Beta-blockers and glioma: a systematic review of preclinical studies and clinical results</t>
+  </si>
+  <si>
+    <t>A. S. Tieu, M.:Fergusson, D. A.:Montroy, J.:Burger, D.:Stewart, D. J.:Shorr, R.:Allan, D. S.:Lalu, M. M.</t>
+  </si>
+  <si>
+    <t>Methods and efficacy of extracellular vesicles derived from mesenchymal stromal cells in animal models of disease: a preclinical systematic review protocol</t>
+  </si>
+  <si>
+    <t>Q. Z. Tong, P. C.:Zhuang, Z.:Deng, L. H.:Wang, Z. H.:Zeng, H.:Zheng, G. Q.:Wang, Y.</t>
+  </si>
+  <si>
+    <t>Notoginsenoside R1 for Organs Ischemia/Reperfusion Injury: A Preclinical Systematic Review</t>
+  </si>
+  <si>
+    <t>P. H. W. F. Tretto, V.:Cericato, G. O.:Sarkis-Onofre, R.:Bacchi, A.</t>
+  </si>
+  <si>
+    <t>Does the instrument used for the implant site preparation influence the bone-implant interface? A systematic review of clinical and animal studies</t>
+  </si>
+  <si>
+    <t>P. R. D. Tuinman, B.:Levi, M.:Juffermans, N. P.:Schultz, M. J.</t>
+  </si>
+  <si>
+    <t>Nebulized anticoagulants for acute lung injury - a systematic review of preclinical and clinical investigations</t>
+  </si>
+  <si>
+    <t>F. S. R. Vahidy, M. H.:Zhu, H.:Rowan, P. J.:Bambhroliya, A. B.:Savitz, S. I.</t>
+  </si>
+  <si>
+    <t>Systematic Review and Meta-Analysis of Bone Marrow-Derived Mononuclear Cells in Animal Models of Ischemic Stroke</t>
+  </si>
+  <si>
+    <t>H. B. S. van der Worp, E. S.:Donnan, G. A.:Howells, D. W.:Macleod, M. R.</t>
+  </si>
+  <si>
+    <t>Hypothermia in animal models of acute ischaemic stroke: a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>P. T. Veginadu, S. R.:Muddada, V.:Gorantla, S.</t>
+  </si>
+  <si>
+    <t>Effect of pharmacological agents on relapse following orthodontic tooth movement: A systematic review of animal studies</t>
+  </si>
+  <si>
+    <t>H. M. C. Vesterinen, G. L.:Carter, S.:Mee, S.:Watzlawick, R.:Egan, K. J.:Macleod, M. R.:Sena, E. S.</t>
+  </si>
+  <si>
+    <t>Systematic review and stratified meta-analysis of the efficacy of RhoA and Rho kinase inhibitors in animal models of ischaemic stroke</t>
+  </si>
+  <si>
+    <t>H. M. M.-F. Vesterinen, R.:Sen, S.:Zeise, L.:Woodruff, T. J.</t>
+  </si>
+  <si>
+    <t>Cumulative effects of prenatal-exposure to exogenous chemicals and psychosocial stress on fetal growth: Systematic-review of the human and animal evidence</t>
+  </si>
+  <si>
+    <t>E. S. Viguiliouk, S. E.:Jayalath, V. H.:Ng, A. P.:Mirrahimi, A.:de Souza, R. J.:Hanley, A. J.:Bazinet, R. P.:Blanco Mejia, S.:Leiter, L. A.:Josse, R. G.:Kendall, C. W.:Jenkins, D. J.:Sievenpiper, J. L.</t>
+  </si>
+  <si>
+    <t>Effect of Replacing Animal Protein with Plant Protein on Glycemic Control in Diabetes: A Systematic Review and Meta-Analysis of Randomized Controlled Trials</t>
+  </si>
+  <si>
+    <t>M. S. V. Volz, T. S.:Brunoni, A. R.:de Oliveira, J. P.:Fregni, F.</t>
+  </si>
+  <si>
+    <t>Analgesic effects of noninvasive brain stimulation in rodent animal models: a systematic review of translational findings</t>
+  </si>
+  <si>
+    <t>H. Z. Wang, Z.:Huang, Y. Y.:Zhuang, Z. Z.:Jin, Y.:Ye, H. Y.:Lin, X. J.:Zheng, Q.:Wang, Y. L.</t>
+  </si>
+  <si>
+    <t>Protective Effect and Possible Mechanisms of Astragaloside IV in Animal Models of Diabetic Nephropathy: A Preclinical Systematic Review and Meta-Analysis</t>
+  </si>
+  <si>
+    <t>P. Z. Wang, J.:Yu, J.:Smith, C.:Feng, W.</t>
+  </si>
+  <si>
+    <t>Brain Modulatory Effects by Low-Intensity Transcranial Ultrasound Stimulation (TUS): A Systematic Review on Both Animal and Human Studies</t>
+  </si>
+  <si>
+    <t>X. S. Z. Wang, Z. R.:Zhang, M. M.:Sun, M. X.:Wang, W. W.:Xie, C. L.</t>
+  </si>
+  <si>
+    <t>Neuroprotective properties of curcumin in toxin-base animal models of Parkinson's disease: a systematic experiment literatures review</t>
+  </si>
+  <si>
+    <t>Z. P. Wang, W.:Zhang, C.:Sheng, C.:Huang, W.:Wang, Y.:Fan, R.</t>
+  </si>
+  <si>
+    <t>Effects of stem cell transplantation on cognitive decline in animal models of Alzheimer's disease: A systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>K. E. H. Wever, C. R.:Riksen, N. P.:Sterenborg, T. B.:Sena, E. S.:Ritskes-Hoitinga, M.:Warle, M. C.</t>
+  </si>
+  <si>
+    <t>Determinants of the Efficacy of Cardiac Ischemic Preconditioning: A Systematic Review and Meta-Analysis of Animal Studies</t>
+  </si>
+  <si>
+    <t>K. E. M. Wever, T. P.:Rovers, M.:van der Vliet, J. A.:Rongen, G. A.:Masereeuw, R.:Ritskes-Hoitinga, M.:Hooijmans, C. R.:Warle, M.</t>
+  </si>
+  <si>
+    <t>Ischemic preconditioning in the animal kidney, a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>A. A. Wiegand, T.</t>
+  </si>
+  <si>
+    <t>Efficacy of enamel matrix derivatives (Emdogain) in treatment of replanted teeth--a systematic review based on animal studies</t>
+  </si>
+  <si>
+    <t>A. S. Williams, S.:Verreck, F.:Vordermeier, M.:Hewinson, G.</t>
+  </si>
+  <si>
+    <t>Response to: Systematic review: animal studies of TB vaccines</t>
+  </si>
+  <si>
+    <t>response to article</t>
+  </si>
+  <si>
+    <t>E. M. Wogensen, H.:Mogensen, J.</t>
+  </si>
+  <si>
+    <t>The Effects of Exercise on Cognitive Recovery after Acquired Brain Injury in Animal Models: A Systematic Review</t>
+  </si>
+  <si>
+    <t>D. Z. D. Wondafrash, T. Z.:Yimer, E. M.:Tsige, A. G.:Adamu, B. A.:Zewdie, K. A.</t>
+  </si>
+  <si>
+    <t>Potential Effect of Hydroxychloroquine in Diabetes Mellitus: A Systematic Review on Preclinical and Clinical Trial Studies</t>
+  </si>
+  <si>
+    <t>Y. X. Wu, R.:Jia, K.:Shi, H.</t>
+  </si>
+  <si>
+    <t>The efficacy of chimeric antigen receptor (CAR) immunotherapy in animal models for solid tumors: A systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>D. K. Xing, J.:Yang, Z.:Hou, Y.:Zhang, W.:Ma, B.:Lin, J.</t>
+  </si>
+  <si>
+    <t>Intra-articular injection of mesenchymal stem cells in treating knee osteoarthritis: a systematic review of animal studies</t>
+  </si>
+  <si>
+    <t>J. L. Xu, Y.:Ni, L.:Yuan, X.:Yu, N.:Wu, R.:Tao, J.:Zhang, Y.</t>
+  </si>
+  <si>
+    <t>Anticancer effect of berberine based on experimental animal models of various cancers: a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>W. O. Xu, L.:Sun, J.:Cui, X.:Suffredini, D.:Li, Y.:Welsh, J.:Eichacker, P. Q.</t>
+  </si>
+  <si>
+    <t>A systematic review and meta-analysis of preclinical trials testing anti-toxin therapies for B. anthracis infection: A need for more robust study designs and results</t>
+  </si>
+  <si>
+    <t>Correction: A systematic review and meta-analysis of preclinical trials testing anti-toxin therapies for B. anthracis infection: A need for more robust study designs and results</t>
+  </si>
+  <si>
+    <t>correction to article</t>
+  </si>
+  <si>
+    <t>W. P. Xu, D.:Sun, J.:Welsh, J.:Cui, X.:Eichacker, P. Q.</t>
+  </si>
+  <si>
+    <t>The Effects of Obesity on Outcome in Preclinical Animal Models of Infection and Sepsis: A Systematic Review and Meta-Analysis</t>
+  </si>
+  <si>
+    <t>J. D. G. Xue, J.:Fu, Q.:Feng, C.:Xie, H.</t>
+  </si>
+  <si>
+    <t>Seeding cell approach for tissue-engineered urethral reconstruction in animal study: A systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>M. L. E. Yakimicki, N. E.:Richards, E.:Beck, A. M.</t>
+  </si>
+  <si>
+    <t>Animal-Assisted Intervention and Dementia: A Systematic Review</t>
+  </si>
+  <si>
+    <t>Q. M. Yang, H.:Chen, X.:Zhang, Y.:Zhang, X.:Liu, Z.:Jiang, G.:Huang, W.</t>
+  </si>
+  <si>
+    <t>Neiguan (PC6)-based acupuncture pretreatment for myocardial ischemia reperfusion injury: A protocol for preclinical systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>N. N. C. Yuan, C. Z.:Wu, M. Y.:Su, H. X.:Li, M.:Lu, J. H.</t>
+  </si>
+  <si>
+    <t>Neuroprotective effects of berberine in animal models of Alzheimer's disease: a systematic review of pre-clinical studies</t>
+  </si>
+  <si>
+    <t>S. R. Zankar, R. A.:Vinas, J. L.:Burns, K. D.</t>
+  </si>
+  <si>
+    <t>The therapeutic effects of microRNAs in preclinical studies of acute kidney injury: a systematic review protocol</t>
+  </si>
+  <si>
+    <t>C. H. Zhang, X. J.:Li, L.:Lu, C.:Lu, A. P.</t>
+  </si>
+  <si>
+    <t>Effect of the Natural Product Triptolide on Pancreatic Cancer: A Systematic Review of Preclinical Studies</t>
+  </si>
+  <si>
+    <t>M. S. Zhang, W. K.:Wu, T.:Chen, F.:Xu, X. Y.:Su, X.:Shi, Y.</t>
+  </si>
+  <si>
+    <t>Efficacy of combination therapy of triazole and echinocandin in treatment of invasive aspergillosis: a systematic review of animal and human studies</t>
+  </si>
+  <si>
+    <t>X. W. C. Zhang, J. Y.:Ouyang, D.:Lu, J. H.</t>
+  </si>
+  <si>
+    <t>Quercetin in Animal Models of Alzheimer's Disease: A Systematic Review of Preclinical Studies</t>
+  </si>
+  <si>
+    <t>F. Y. F. Zhao, Q. Q.:Zheng, Z.:Lao, L. X.:Song, H. L.:Shi, Z.</t>
+  </si>
+  <si>
+    <t>Verum- versus Sham-Acupuncture on Alzheimer's Disease (AD) in Animal Models: A Preclinical Systematic Review and Meta-Analysis</t>
+  </si>
+  <si>
+    <t>X. L. Zhao, Y. N.:Huang, Q.</t>
+  </si>
+  <si>
+    <t>The impact of RAGE inhibition in animal models of bacterial sepsis: a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>Q. C. Zheng, Z. X.:Xu, M. B.:Zhou, X. L.:Huang, Y. Y.:Zheng, G. Q.:Wang, Y.</t>
+  </si>
+  <si>
+    <t>Borneol, a messenger agent, improves central nervous system drug delivery through enhancing blood-brain barrier permeability: a preclinical systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>Q. Z. Zheng, J. Z.:Bao, X. Y.:Zhu, P. C.:Tong, Q.:Huang, Y. Y.:Zhang, Q. H.:Zhang, K. J.:Zheng, G. Q.:Wang, Y.</t>
+  </si>
+  <si>
+    <t>A Preclinical Systematic Review and Meta-Analysis of Astragaloside IV for Myocardial Ischemia/Reperfusion Injury</t>
+  </si>
+  <si>
+    <t>J. Y. Zhou, D.:Liu, K.:Hou, L.:Zhang, W.</t>
+  </si>
+  <si>
+    <t>Systematic review and meta-analysis of the protective effect of resveratrol on multiple organ injury induced by sepsis in animal models</t>
+  </si>
+  <si>
+    <t>P. C. T. Zhu, Q.:Zhuang, Z.:Wang, Z. H.:Deng, L. H.:Zheng, G. Q.:Wang, Y.</t>
+  </si>
+  <si>
+    <t>Ginkgolide B for Myocardial Ischemia/Reperfusion Injury: A Preclinical Systematic Review and Meta-Analysis</t>
+  </si>
+  <si>
+    <t>Z. W. Zhuang, Z. H.:Deng, L. H.:Zheng, Q.:Zheng, G. Q.:Wang, Y.</t>
+  </si>
+  <si>
+    <t>Astragaloside IV Exerts Cardioprotection in Animal Models of Viral Myocarditis: A Preclinical Systematic Review and Meta-Analysis</t>
+  </si>
+  <si>
+    <t>P. P. V. Zwetsloot, A. M.:Jansen of Lorkeers, S. J.:van Hout, G. P.:Currie, G. L.:Sena, E. S.:Gremmels, H.:Buikema, J. W.:Goumans, M. J.:Macleod, M. R.:Doevendans, P. A.:Chamuleau, S. A.:Sluijter, J. P.</t>
+  </si>
+  <si>
+    <t>Cardiac Stem Cell Treatment in Myocardial Infarction: A Systematic Review and Meta-Analysis of Preclinical Studies</t>
+  </si>
+  <si>
+    <t>Selection process for reviews: we looked specifically for systematic reviews of preclinical therapeutic interventions to determine where they found their primary data. On 3/3/21, PubMed indexed 180,585 publications as systematic reviews. Of those with “Free full text” available, PubMed’s inbuilt “other animal” filter identified 5,593 (3%) as potentially relevant to animal research. 1572 (0.9% of all PubMed returns, 28% of those filtered as “other animal”) self-identified as a systematic review, including the term in the article title. On inspection of these papers, we found 283 papers (listed in this sheet) examining therapeutic interventions in preclinical disease models. We selected 20 of these at random for closer examination (listed in other sheets).</t>
+  </si>
+  <si>
+    <t>A list of all reviews identified in initial search, reviews were excluded from this analysis if a PDF copy could not be found using EndNote searching, if they did not contain a PRISMA diagram or contained paper exclusion numbers in the text. Papers were also excluded if they were not a systematic review (e.g. narrative review, protocol). This left 246 studies potentially eligible for our data extraction.</t>
+  </si>
+  <si>
+    <t>Data extracted from 20 systematic reviews randomly selected from the 246 reviews eligible after first screenining. Data are on the numbers of publications the reviews identified in their searches, how many were excluded, and for what reason. Summary statistics are calculated in this sheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selection criteria for these 20 reviews listed above. Random number generation in Excel used for selection. Resampling was utilised and the review was excluded if they did not state reasons for their exclusions at each stage. Resampling was also utilised for errors in data reporting, reviews excluded for this reason (n=3) are listed at bottom of the sheet. More detailed criteria for each exclusion category/reason within the reviews (irrelevant, ineligible, other) is listed in "Data validation" sheet. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What has preclinical systematic review ever done for us - Russell </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2021</t>
+    </r>
+  </si>
+  <si>
+    <t>This excel file contains the data used in the publication "what has preclinical systematic review ever done for us". The authors have made this publicly available in the interests of open science. Updated versions and more information can be found at https://github.com/A-M-Russell/Russell-2021-whats-review-done-for-us</t>
+  </si>
+  <si>
+    <t>This Excel sheet is a dictionary with information on all the other sheets in this file.</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +2797,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1259,6 +2854,23 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1292,7 +2904,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1388,13 +3000,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1"/>
@@ -1453,13 +3084,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Heading 2" xfId="3" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Heading 4" xfId="2" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="253">
+  <dxfs count="360">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3977,6 +5618,1076 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4326,10 +7037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37009CF1-5C30-4C4D-BE14-9216467D698E}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4339,81 +7050,6364 @@
     <col min="3" max="3" width="64.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="28" t="s">
+        <v>889</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+    </row>
+    <row r="2" spans="1:3" s="23" customFormat="1" ht="46.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>890</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+    </row>
+    <row r="3" spans="1:3" s="23" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="23" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+    <row r="5" spans="1:3" s="23" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>886</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="23" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="B6" s="23" t="s">
+        <v>887</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="23" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="23" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="23" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="B3" s="23" t="s">
+      <c r="B9" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="23" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="C9" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="C5" s="23" t="s">
+    </row>
+    <row r="10" spans="1:3" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>360</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D546BE-E3BE-4DDA-A01C-7529F006EC84}">
+  <dimension ref="A1:G284"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" customWidth="1"/>
+    <col min="6" max="6" width="29.21875" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2">
+        <v>2019</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3">
+        <v>2017</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>2018</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5">
+        <v>2020</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6">
+        <v>2019</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7">
+        <v>2014</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8">
+        <v>2019</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C9">
+        <v>2019</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C10">
+        <v>2013</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C11">
+        <v>2019</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>2017</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>2016</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>2018</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>386</v>
+      </c>
+      <c r="B15" t="s">
+        <v>387</v>
+      </c>
+      <c r="C15">
+        <v>2017</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>388</v>
+      </c>
+      <c r="B16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C16">
+        <v>2020</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>2020</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>390</v>
+      </c>
+      <c r="B18" t="s">
+        <v>391</v>
+      </c>
+      <c r="C18">
+        <v>2017</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>393</v>
+      </c>
+      <c r="B19" t="s">
+        <v>394</v>
+      </c>
+      <c r="C19">
+        <v>2015</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>395</v>
+      </c>
+      <c r="B20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C20">
+        <v>2013</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>397</v>
+      </c>
+      <c r="B21" t="s">
+        <v>398</v>
+      </c>
+      <c r="C21">
+        <v>2012</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>399</v>
+      </c>
+      <c r="B22" t="s">
+        <v>400</v>
+      </c>
+      <c r="C22">
+        <v>2019</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>401</v>
+      </c>
+      <c r="B23" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23">
+        <v>2016</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>403</v>
+      </c>
+      <c r="B24" t="s">
+        <v>404</v>
+      </c>
+      <c r="C24">
+        <v>2020</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>405</v>
+      </c>
+      <c r="B25" t="s">
+        <v>406</v>
+      </c>
+      <c r="C25">
+        <v>2018</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>407</v>
+      </c>
+      <c r="B26" t="s">
+        <v>408</v>
+      </c>
+      <c r="C26">
+        <v>2016</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>409</v>
+      </c>
+      <c r="B27" t="s">
+        <v>410</v>
+      </c>
+      <c r="C27">
+        <v>2017</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>411</v>
+      </c>
+      <c r="B28" t="s">
+        <v>412</v>
+      </c>
+      <c r="C28">
+        <v>2017</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>413</v>
+      </c>
+      <c r="B29" t="s">
+        <v>414</v>
+      </c>
+      <c r="C29">
+        <v>2017</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>415</v>
+      </c>
+      <c r="B30" t="s">
+        <v>416</v>
+      </c>
+      <c r="C30">
+        <v>2015</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>417</v>
+      </c>
+      <c r="B31" t="s">
+        <v>418</v>
+      </c>
+      <c r="C31">
+        <v>2020</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>419</v>
+      </c>
+      <c r="B32" t="s">
+        <v>420</v>
+      </c>
+      <c r="C32">
+        <v>2020</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>421</v>
+      </c>
+      <c r="B33" t="s">
+        <v>422</v>
+      </c>
+      <c r="C33">
+        <v>2020</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>423</v>
+      </c>
+      <c r="B34" t="s">
+        <v>424</v>
+      </c>
+      <c r="C34">
+        <v>2018</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>2020</v>
+      </c>
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>425</v>
+      </c>
+      <c r="B36" t="s">
+        <v>426</v>
+      </c>
+      <c r="C36">
+        <v>2020</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>427</v>
+      </c>
+      <c r="B37" t="s">
+        <v>428</v>
+      </c>
+      <c r="C37">
+        <v>2017</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>429</v>
+      </c>
+      <c r="B38" t="s">
+        <v>430</v>
+      </c>
+      <c r="C38">
+        <v>2016</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39">
+        <v>2016</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>431</v>
+      </c>
+      <c r="B40" t="s">
+        <v>432</v>
+      </c>
+      <c r="C40">
+        <v>2016</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>433</v>
+      </c>
+      <c r="B41" t="s">
+        <v>434</v>
+      </c>
+      <c r="C41">
+        <v>2020</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>435</v>
+      </c>
+      <c r="B42" t="s">
+        <v>436</v>
+      </c>
+      <c r="C42">
+        <v>2019</v>
+      </c>
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>437</v>
+      </c>
+      <c r="B43" t="s">
+        <v>438</v>
+      </c>
+      <c r="C43">
+        <v>2018</v>
+      </c>
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>439</v>
+      </c>
+      <c r="B44" t="s">
+        <v>440</v>
+      </c>
+      <c r="C44">
+        <v>2019</v>
+      </c>
+      <c r="D44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>441</v>
+      </c>
+      <c r="B45" t="s">
+        <v>442</v>
+      </c>
+      <c r="C45">
+        <v>2018</v>
+      </c>
+      <c r="D45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>443</v>
+      </c>
+      <c r="B46" t="s">
+        <v>444</v>
+      </c>
+      <c r="C46">
+        <v>2017</v>
+      </c>
+      <c r="D46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>445</v>
+      </c>
+      <c r="B47" t="s">
+        <v>446</v>
+      </c>
+      <c r="C47">
+        <v>2018</v>
+      </c>
+      <c r="D47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>447</v>
+      </c>
+      <c r="B48" t="s">
+        <v>448</v>
+      </c>
+      <c r="C48">
+        <v>2014</v>
+      </c>
+      <c r="D48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>449</v>
+      </c>
+      <c r="B49" t="s">
+        <v>450</v>
+      </c>
+      <c r="C49">
+        <v>2014</v>
+      </c>
+      <c r="D49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>451</v>
+      </c>
+      <c r="B50" t="s">
+        <v>452</v>
+      </c>
+      <c r="C50">
+        <v>2019</v>
+      </c>
+      <c r="D50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>2019</v>
+      </c>
+      <c r="D51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>453</v>
+      </c>
+      <c r="B52" t="s">
+        <v>454</v>
+      </c>
+      <c r="C52">
+        <v>2015</v>
+      </c>
+      <c r="D52" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>455</v>
+      </c>
+      <c r="B53" t="s">
+        <v>456</v>
+      </c>
+      <c r="C53">
+        <v>2019</v>
+      </c>
+      <c r="D53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>457</v>
+      </c>
+      <c r="B54" t="s">
+        <v>458</v>
+      </c>
+      <c r="C54">
+        <v>2018</v>
+      </c>
+      <c r="D54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>459</v>
+      </c>
+      <c r="B55" t="s">
+        <v>460</v>
+      </c>
+      <c r="C55">
+        <v>2020</v>
+      </c>
+      <c r="D55" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>461</v>
+      </c>
+      <c r="B56" t="s">
+        <v>462</v>
+      </c>
+      <c r="C56">
+        <v>2016</v>
+      </c>
+      <c r="D56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>463</v>
+      </c>
+      <c r="B57" t="s">
+        <v>464</v>
+      </c>
+      <c r="C57">
+        <v>2018</v>
+      </c>
+      <c r="D57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>465</v>
+      </c>
+      <c r="B58" t="s">
+        <v>466</v>
+      </c>
+      <c r="C58">
+        <v>2019</v>
+      </c>
+      <c r="D58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>467</v>
+      </c>
+      <c r="B59" t="s">
+        <v>468</v>
+      </c>
+      <c r="C59">
+        <v>2014</v>
+      </c>
+      <c r="D59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>469</v>
+      </c>
+      <c r="B60" t="s">
+        <v>470</v>
+      </c>
+      <c r="C60">
+        <v>2015</v>
+      </c>
+      <c r="D60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>471</v>
+      </c>
+      <c r="B61" t="s">
+        <v>472</v>
+      </c>
+      <c r="C61">
+        <v>2019</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>473</v>
+      </c>
+      <c r="B62" t="s">
+        <v>474</v>
+      </c>
+      <c r="C62">
+        <v>2017</v>
+      </c>
+      <c r="D62" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>475</v>
+      </c>
+      <c r="B63" t="s">
+        <v>476</v>
+      </c>
+      <c r="C63">
+        <v>2015</v>
+      </c>
+      <c r="D63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64">
+        <v>2019</v>
+      </c>
+      <c r="D64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>477</v>
+      </c>
+      <c r="B65" t="s">
+        <v>478</v>
+      </c>
+      <c r="C65">
+        <v>2007</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>479</v>
+      </c>
+      <c r="B66" t="s">
+        <v>480</v>
+      </c>
+      <c r="C66">
+        <v>2020</v>
+      </c>
+      <c r="D66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67">
+        <v>2016</v>
+      </c>
+      <c r="D67" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>481</v>
+      </c>
+      <c r="B68" t="s">
+        <v>482</v>
+      </c>
+      <c r="C68">
+        <v>2016</v>
+      </c>
+      <c r="D68" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>483</v>
+      </c>
+      <c r="B69" t="s">
+        <v>484</v>
+      </c>
+      <c r="C69">
+        <v>2017</v>
+      </c>
+      <c r="D69" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>485</v>
+      </c>
+      <c r="B70" t="s">
+        <v>486</v>
+      </c>
+      <c r="C70">
+        <v>2020</v>
+      </c>
+      <c r="D70" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>487</v>
+      </c>
+      <c r="B71" t="s">
+        <v>488</v>
+      </c>
+      <c r="C71">
+        <v>2019</v>
+      </c>
+      <c r="D71" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>489</v>
+      </c>
+      <c r="B72" t="s">
+        <v>490</v>
+      </c>
+      <c r="C72">
+        <v>2020</v>
+      </c>
+      <c r="D72" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>491</v>
+      </c>
+      <c r="B73" t="s">
+        <v>492</v>
+      </c>
+      <c r="C73">
+        <v>2019</v>
+      </c>
+      <c r="D73" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>493</v>
+      </c>
+      <c r="B74" t="s">
+        <v>494</v>
+      </c>
+      <c r="C74">
+        <v>2019</v>
+      </c>
+      <c r="D74" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>495</v>
+      </c>
+      <c r="B75" t="s">
+        <v>496</v>
+      </c>
+      <c r="C75">
+        <v>2015</v>
+      </c>
+      <c r="D75" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>497</v>
+      </c>
+      <c r="B76" t="s">
+        <v>498</v>
+      </c>
+      <c r="C76">
+        <v>2019</v>
+      </c>
+      <c r="D76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>499</v>
+      </c>
+      <c r="B77" t="s">
+        <v>500</v>
+      </c>
+      <c r="C77">
+        <v>2017</v>
+      </c>
+      <c r="D77" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>501</v>
+      </c>
+      <c r="B78" t="s">
+        <v>502</v>
+      </c>
+      <c r="C78">
+        <v>2020</v>
+      </c>
+      <c r="D78" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>503</v>
+      </c>
+      <c r="B79" t="s">
+        <v>504</v>
+      </c>
+      <c r="C79">
+        <v>2019</v>
+      </c>
+      <c r="D79" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>505</v>
+      </c>
+      <c r="B80" t="s">
+        <v>506</v>
+      </c>
+      <c r="C80">
+        <v>2020</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>507</v>
+      </c>
+      <c r="B81" t="s">
+        <v>508</v>
+      </c>
+      <c r="C81">
+        <v>2014</v>
+      </c>
+      <c r="D81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82">
+        <v>2018</v>
+      </c>
+      <c r="D82" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>509</v>
+      </c>
+      <c r="B83" t="s">
+        <v>510</v>
+      </c>
+      <c r="C83">
+        <v>2018</v>
+      </c>
+      <c r="D83" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>511</v>
+      </c>
+      <c r="B84" t="s">
+        <v>512</v>
+      </c>
+      <c r="C84">
+        <v>2010</v>
+      </c>
+      <c r="D84" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85">
+        <v>2012</v>
+      </c>
+      <c r="D85" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>513</v>
+      </c>
+      <c r="B86" t="s">
+        <v>514</v>
+      </c>
+      <c r="C86">
+        <v>2018</v>
+      </c>
+      <c r="D86" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>515</v>
+      </c>
+      <c r="B87" t="s">
+        <v>516</v>
+      </c>
+      <c r="C87">
+        <v>2019</v>
+      </c>
+      <c r="D87" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>517</v>
+      </c>
+      <c r="B88" t="s">
+        <v>518</v>
+      </c>
+      <c r="C88">
+        <v>2018</v>
+      </c>
+      <c r="D88" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>519</v>
+      </c>
+      <c r="B89" t="s">
+        <v>520</v>
+      </c>
+      <c r="C89">
+        <v>2017</v>
+      </c>
+      <c r="D89" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>522</v>
+      </c>
+      <c r="B90" t="s">
+        <v>523</v>
+      </c>
+      <c r="C90">
+        <v>2019</v>
+      </c>
+      <c r="D90" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>524</v>
+      </c>
+      <c r="B91" t="s">
+        <v>525</v>
+      </c>
+      <c r="C91">
+        <v>2013</v>
+      </c>
+      <c r="D91" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>526</v>
+      </c>
+      <c r="B92" t="s">
+        <v>527</v>
+      </c>
+      <c r="C92">
+        <v>2014</v>
+      </c>
+      <c r="D92" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>528</v>
+      </c>
+      <c r="B93" t="s">
+        <v>529</v>
+      </c>
+      <c r="C93">
+        <v>2016</v>
+      </c>
+      <c r="D93" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>530</v>
+      </c>
+      <c r="B94" t="s">
+        <v>531</v>
+      </c>
+      <c r="C94">
+        <v>2017</v>
+      </c>
+      <c r="D94" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>532</v>
+      </c>
+      <c r="B95" t="s">
+        <v>533</v>
+      </c>
+      <c r="C95">
+        <v>2020</v>
+      </c>
+      <c r="D95" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>532</v>
+      </c>
+      <c r="B96" t="s">
+        <v>534</v>
+      </c>
+      <c r="C96">
+        <v>2020</v>
+      </c>
+      <c r="D96" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>535</v>
+      </c>
+      <c r="B97" t="s">
+        <v>536</v>
+      </c>
+      <c r="C97">
+        <v>2016</v>
+      </c>
+      <c r="D97" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>537</v>
+      </c>
+      <c r="B98" t="s">
+        <v>538</v>
+      </c>
+      <c r="C98">
+        <v>2019</v>
+      </c>
+      <c r="D98" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>539</v>
+      </c>
+      <c r="B99" t="s">
+        <v>540</v>
+      </c>
+      <c r="C99">
+        <v>2012</v>
+      </c>
+      <c r="D99" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>541</v>
+      </c>
+      <c r="B100" t="s">
+        <v>542</v>
+      </c>
+      <c r="C100">
+        <v>2001</v>
+      </c>
+      <c r="D100" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>543</v>
+      </c>
+      <c r="B101" t="s">
+        <v>544</v>
+      </c>
+      <c r="C101">
+        <v>2020</v>
+      </c>
+      <c r="D101" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>545</v>
+      </c>
+      <c r="B102" t="s">
+        <v>546</v>
+      </c>
+      <c r="C102">
+        <v>2017</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>547</v>
+      </c>
+      <c r="B103" t="s">
+        <v>548</v>
+      </c>
+      <c r="C103">
+        <v>2017</v>
+      </c>
+      <c r="D103" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>549</v>
+      </c>
+      <c r="B104" t="s">
+        <v>550</v>
+      </c>
+      <c r="C104">
+        <v>2015</v>
+      </c>
+      <c r="D104" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>60</v>
+      </c>
+      <c r="B105" t="s">
+        <v>61</v>
+      </c>
+      <c r="C105">
+        <v>2013</v>
+      </c>
+      <c r="D105" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>0</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>551</v>
+      </c>
+      <c r="B106" t="s">
+        <v>552</v>
+      </c>
+      <c r="C106">
+        <v>2018</v>
+      </c>
+      <c r="D106" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>553</v>
+      </c>
+      <c r="B107" t="s">
+        <v>554</v>
+      </c>
+      <c r="C107">
+        <v>2019</v>
+      </c>
+      <c r="D107" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>0</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>555</v>
+      </c>
+      <c r="B108" t="s">
+        <v>556</v>
+      </c>
+      <c r="C108">
+        <v>2020</v>
+      </c>
+      <c r="D108" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>557</v>
+      </c>
+      <c r="B109" t="s">
+        <v>558</v>
+      </c>
+      <c r="C109">
+        <v>2019</v>
+      </c>
+      <c r="D109" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>559</v>
+      </c>
+      <c r="B110" t="s">
+        <v>560</v>
+      </c>
+      <c r="C110">
+        <v>2016</v>
+      </c>
+      <c r="D110" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>561</v>
+      </c>
+      <c r="B111" t="s">
+        <v>562</v>
+      </c>
+      <c r="C111">
+        <v>2017</v>
+      </c>
+      <c r="D111" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>563</v>
+      </c>
+      <c r="B112" t="s">
+        <v>564</v>
+      </c>
+      <c r="C112">
+        <v>2019</v>
+      </c>
+      <c r="D112" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>565</v>
+      </c>
+      <c r="B113" t="s">
+        <v>566</v>
+      </c>
+      <c r="C113">
+        <v>2020</v>
+      </c>
+      <c r="D113" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>567</v>
+      </c>
+      <c r="B114" t="s">
+        <v>568</v>
+      </c>
+      <c r="C114">
+        <v>2009</v>
+      </c>
+      <c r="D114" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>569</v>
+      </c>
+      <c r="B115" t="s">
+        <v>570</v>
+      </c>
+      <c r="C115">
+        <v>2020</v>
+      </c>
+      <c r="D115" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>0</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>571</v>
+      </c>
+      <c r="B116" t="s">
+        <v>572</v>
+      </c>
+      <c r="C116">
+        <v>2020</v>
+      </c>
+      <c r="D116" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>573</v>
+      </c>
+      <c r="B117" t="s">
+        <v>574</v>
+      </c>
+      <c r="C117">
+        <v>2009</v>
+      </c>
+      <c r="D117" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>575</v>
+      </c>
+      <c r="B118" t="s">
+        <v>576</v>
+      </c>
+      <c r="C118">
+        <v>2013</v>
+      </c>
+      <c r="D118" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>0</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>577</v>
+      </c>
+      <c r="B119" t="s">
+        <v>578</v>
+      </c>
+      <c r="C119">
+        <v>2017</v>
+      </c>
+      <c r="D119" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>0</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>579</v>
+      </c>
+      <c r="B120" t="s">
+        <v>580</v>
+      </c>
+      <c r="C120">
+        <v>2020</v>
+      </c>
+      <c r="D120" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>581</v>
+      </c>
+      <c r="B121" t="s">
+        <v>582</v>
+      </c>
+      <c r="C121">
+        <v>2020</v>
+      </c>
+      <c r="D121" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>0</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>583</v>
+      </c>
+      <c r="B122" t="s">
+        <v>584</v>
+      </c>
+      <c r="C122">
+        <v>2019</v>
+      </c>
+      <c r="D122" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>0</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>585</v>
+      </c>
+      <c r="B123" t="s">
+        <v>586</v>
+      </c>
+      <c r="C123">
+        <v>2015</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>587</v>
+      </c>
+      <c r="B124" t="s">
+        <v>588</v>
+      </c>
+      <c r="C124">
+        <v>2017</v>
+      </c>
+      <c r="D124" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1</v>
+      </c>
+      <c r="F124" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>589</v>
+      </c>
+      <c r="B125" t="s">
+        <v>590</v>
+      </c>
+      <c r="C125">
+        <v>2020</v>
+      </c>
+      <c r="D125" t="s">
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>0</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>591</v>
+      </c>
+      <c r="B126" t="s">
+        <v>592</v>
+      </c>
+      <c r="C126">
+        <v>2015</v>
+      </c>
+      <c r="D126" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>593</v>
+      </c>
+      <c r="B127" t="s">
+        <v>594</v>
+      </c>
+      <c r="C127">
+        <v>2016</v>
+      </c>
+      <c r="D127" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>0</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>595</v>
+      </c>
+      <c r="B128" t="s">
+        <v>596</v>
+      </c>
+      <c r="C128">
+        <v>2019</v>
+      </c>
+      <c r="D128" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>0</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>597</v>
+      </c>
+      <c r="B129" t="s">
+        <v>598</v>
+      </c>
+      <c r="C129">
+        <v>2014</v>
+      </c>
+      <c r="D129" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>62</v>
+      </c>
+      <c r="B130" t="s">
+        <v>63</v>
+      </c>
+      <c r="C130">
+        <v>2019</v>
+      </c>
+      <c r="D130" t="s">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>0</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>599</v>
+      </c>
+      <c r="B131" t="s">
+        <v>600</v>
+      </c>
+      <c r="C131">
+        <v>2020</v>
+      </c>
+      <c r="D131" t="s">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>0</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>601</v>
+      </c>
+      <c r="B132" t="s">
+        <v>602</v>
+      </c>
+      <c r="C132">
+        <v>2016</v>
+      </c>
+      <c r="D132" t="s">
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>0</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>603</v>
+      </c>
+      <c r="B133" t="s">
+        <v>604</v>
+      </c>
+      <c r="C133">
+        <v>2019</v>
+      </c>
+      <c r="D133" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>0</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>605</v>
+      </c>
+      <c r="B134" t="s">
+        <v>606</v>
+      </c>
+      <c r="C134">
+        <v>2020</v>
+      </c>
+      <c r="D134" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>0</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>64</v>
+      </c>
+      <c r="B135" t="s">
+        <v>65</v>
+      </c>
+      <c r="C135">
+        <v>2015</v>
+      </c>
+      <c r="D135" t="s">
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>0</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>607</v>
+      </c>
+      <c r="B136" t="s">
+        <v>608</v>
+      </c>
+      <c r="C136">
+        <v>2018</v>
+      </c>
+      <c r="D136" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>0</v>
+      </c>
+      <c r="F136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>609</v>
+      </c>
+      <c r="B137" t="s">
+        <v>610</v>
+      </c>
+      <c r="C137">
+        <v>2011</v>
+      </c>
+      <c r="D137" t="s">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>0</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>611</v>
+      </c>
+      <c r="B138" t="s">
+        <v>612</v>
+      </c>
+      <c r="C138">
+        <v>2020</v>
+      </c>
+      <c r="D138" t="s">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>0</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>613</v>
+      </c>
+      <c r="B139" t="s">
+        <v>614</v>
+      </c>
+      <c r="C139">
+        <v>2020</v>
+      </c>
+      <c r="D139" t="s">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>0</v>
+      </c>
+      <c r="F139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>66</v>
+      </c>
+      <c r="B140" t="s">
+        <v>67</v>
+      </c>
+      <c r="C140">
+        <v>2014</v>
+      </c>
+      <c r="D140" t="s">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>0</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>615</v>
+      </c>
+      <c r="B141" t="s">
+        <v>616</v>
+      </c>
+      <c r="C141">
+        <v>2019</v>
+      </c>
+      <c r="D141" t="s">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>0</v>
+      </c>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>617</v>
+      </c>
+      <c r="B142" t="s">
+        <v>618</v>
+      </c>
+      <c r="C142">
+        <v>2016</v>
+      </c>
+      <c r="D142" t="s">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>0</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>619</v>
+      </c>
+      <c r="B143" t="s">
+        <v>620</v>
+      </c>
+      <c r="C143">
+        <v>2016</v>
+      </c>
+      <c r="D143" t="s">
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>0</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>621</v>
+      </c>
+      <c r="B144" t="s">
+        <v>622</v>
+      </c>
+      <c r="C144">
+        <v>2020</v>
+      </c>
+      <c r="D144" t="s">
+        <v>0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>0</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>623</v>
+      </c>
+      <c r="B145" t="s">
+        <v>624</v>
+      </c>
+      <c r="C145">
+        <v>2018</v>
+      </c>
+      <c r="D145" t="s">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>0</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>625</v>
+      </c>
+      <c r="B146" t="s">
+        <v>626</v>
+      </c>
+      <c r="C146">
+        <v>2013</v>
+      </c>
+      <c r="D146" t="s">
+        <v>0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>0</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>627</v>
+      </c>
+      <c r="B147" t="s">
+        <v>628</v>
+      </c>
+      <c r="C147">
+        <v>2014</v>
+      </c>
+      <c r="D147" t="s">
+        <v>0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>0</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>68</v>
+      </c>
+      <c r="B148" t="s">
+        <v>69</v>
+      </c>
+      <c r="C148">
+        <v>2018</v>
+      </c>
+      <c r="D148" t="s">
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>0</v>
+      </c>
+      <c r="F148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>629</v>
+      </c>
+      <c r="B149" t="s">
+        <v>630</v>
+      </c>
+      <c r="C149">
+        <v>2011</v>
+      </c>
+      <c r="D149" t="s">
+        <v>0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>0</v>
+      </c>
+      <c r="F149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>631</v>
+      </c>
+      <c r="B150" t="s">
+        <v>632</v>
+      </c>
+      <c r="C150">
+        <v>2020</v>
+      </c>
+      <c r="D150" t="s">
+        <v>0</v>
+      </c>
+      <c r="E150" t="s">
+        <v>0</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>633</v>
+      </c>
+      <c r="B151" t="s">
+        <v>634</v>
+      </c>
+      <c r="C151">
+        <v>2015</v>
+      </c>
+      <c r="D151" t="s">
+        <v>0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>0</v>
+      </c>
+      <c r="F151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>635</v>
+      </c>
+      <c r="B152" t="s">
+        <v>636</v>
+      </c>
+      <c r="C152">
+        <v>2016</v>
+      </c>
+      <c r="D152" t="s">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>0</v>
+      </c>
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>637</v>
+      </c>
+      <c r="B153" t="s">
+        <v>638</v>
+      </c>
+      <c r="C153">
+        <v>2020</v>
+      </c>
+      <c r="D153" t="s">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>640</v>
+      </c>
+      <c r="B154" t="s">
+        <v>641</v>
+      </c>
+      <c r="C154">
+        <v>2017</v>
+      </c>
+      <c r="D154" t="s">
+        <v>0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>0</v>
+      </c>
+      <c r="F154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>642</v>
+      </c>
+      <c r="B155" t="s">
+        <v>643</v>
+      </c>
+      <c r="C155">
+        <v>2005</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>644</v>
+      </c>
+      <c r="B156" t="s">
+        <v>645</v>
+      </c>
+      <c r="C156">
+        <v>2016</v>
+      </c>
+      <c r="D156" t="s">
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>646</v>
+      </c>
+      <c r="B157" t="s">
+        <v>647</v>
+      </c>
+      <c r="C157">
+        <v>2014</v>
+      </c>
+      <c r="D157" t="s">
+        <v>0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>0</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>648</v>
+      </c>
+      <c r="B158" t="s">
+        <v>649</v>
+      </c>
+      <c r="C158">
+        <v>2019</v>
+      </c>
+      <c r="D158" t="s">
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>0</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>650</v>
+      </c>
+      <c r="B159" t="s">
+        <v>651</v>
+      </c>
+      <c r="C159">
+        <v>2016</v>
+      </c>
+      <c r="D159" t="s">
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>0</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>652</v>
+      </c>
+      <c r="B160" t="s">
+        <v>653</v>
+      </c>
+      <c r="C160">
+        <v>2020</v>
+      </c>
+      <c r="D160" t="s">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>0</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>654</v>
+      </c>
+      <c r="B161" t="s">
+        <v>655</v>
+      </c>
+      <c r="C161">
+        <v>2019</v>
+      </c>
+      <c r="D161" t="s">
+        <v>0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>0</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>656</v>
+      </c>
+      <c r="B162" t="s">
+        <v>657</v>
+      </c>
+      <c r="C162">
+        <v>2014</v>
+      </c>
+      <c r="D162" t="s">
+        <v>0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>0</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>658</v>
+      </c>
+      <c r="B163" t="s">
+        <v>659</v>
+      </c>
+      <c r="C163">
+        <v>2016</v>
+      </c>
+      <c r="D163" t="s">
+        <v>0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>0</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>660</v>
+      </c>
+      <c r="B164" t="s">
+        <v>661</v>
+      </c>
+      <c r="C164">
+        <v>2016</v>
+      </c>
+      <c r="D164" t="s">
+        <v>0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>0</v>
+      </c>
+      <c r="F164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>662</v>
+      </c>
+      <c r="B165" t="s">
+        <v>663</v>
+      </c>
+      <c r="C165">
+        <v>2020</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>664</v>
+      </c>
+      <c r="B166" t="s">
+        <v>665</v>
+      </c>
+      <c r="C166">
+        <v>2018</v>
+      </c>
+      <c r="D166" t="s">
+        <v>0</v>
+      </c>
+      <c r="E166" t="s">
+        <v>0</v>
+      </c>
+      <c r="F166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>666</v>
+      </c>
+      <c r="B167" t="s">
+        <v>667</v>
+      </c>
+      <c r="C167">
+        <v>2020</v>
+      </c>
+      <c r="D167" t="s">
+        <v>0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>0</v>
+      </c>
+      <c r="F167" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>668</v>
+      </c>
+      <c r="B168" t="s">
+        <v>669</v>
+      </c>
+      <c r="C168">
+        <v>2018</v>
+      </c>
+      <c r="D168" t="s">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>0</v>
+      </c>
+      <c r="F168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>670</v>
+      </c>
+      <c r="B169" t="s">
+        <v>671</v>
+      </c>
+      <c r="C169">
+        <v>2020</v>
+      </c>
+      <c r="D169" t="s">
+        <v>0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>0</v>
+      </c>
+      <c r="F169" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>672</v>
+      </c>
+      <c r="B170" t="s">
+        <v>673</v>
+      </c>
+      <c r="C170">
+        <v>2020</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1</v>
+      </c>
+      <c r="E170" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>674</v>
+      </c>
+      <c r="B171" t="s">
+        <v>675</v>
+      </c>
+      <c r="C171">
+        <v>2015</v>
+      </c>
+      <c r="D171" t="s">
+        <v>0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1</v>
+      </c>
+      <c r="G171" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>676</v>
+      </c>
+      <c r="B172" t="s">
+        <v>677</v>
+      </c>
+      <c r="C172">
+        <v>2019</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1</v>
+      </c>
+      <c r="E172" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>678</v>
+      </c>
+      <c r="B173" t="s">
+        <v>679</v>
+      </c>
+      <c r="C173">
+        <v>2020</v>
+      </c>
+      <c r="D173" t="s">
+        <v>0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>0</v>
+      </c>
+      <c r="F173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>680</v>
+      </c>
+      <c r="B174" t="s">
+        <v>681</v>
+      </c>
+      <c r="C174">
+        <v>2015</v>
+      </c>
+      <c r="D174" t="s">
+        <v>0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>0</v>
+      </c>
+      <c r="F174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>682</v>
+      </c>
+      <c r="B175" t="s">
+        <v>683</v>
+      </c>
+      <c r="C175">
+        <v>2011</v>
+      </c>
+      <c r="D175" t="s">
+        <v>0</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>684</v>
+      </c>
+      <c r="B176" t="s">
+        <v>685</v>
+      </c>
+      <c r="C176">
+        <v>2015</v>
+      </c>
+      <c r="D176" t="s">
+        <v>0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>0</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>686</v>
+      </c>
+      <c r="B177" t="s">
+        <v>687</v>
+      </c>
+      <c r="C177">
+        <v>2016</v>
+      </c>
+      <c r="D177" t="s">
+        <v>0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>0</v>
+      </c>
+      <c r="F177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>688</v>
+      </c>
+      <c r="B178" t="s">
+        <v>689</v>
+      </c>
+      <c r="C178">
+        <v>2015</v>
+      </c>
+      <c r="D178" t="s">
+        <v>0</v>
+      </c>
+      <c r="E178" t="s">
+        <v>0</v>
+      </c>
+      <c r="F178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>690</v>
+      </c>
+      <c r="B179" t="s">
+        <v>691</v>
+      </c>
+      <c r="C179">
+        <v>2019</v>
+      </c>
+      <c r="D179" t="s">
+        <v>0</v>
+      </c>
+      <c r="E179" t="s">
+        <v>0</v>
+      </c>
+      <c r="F179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>692</v>
+      </c>
+      <c r="B180" t="s">
+        <v>693</v>
+      </c>
+      <c r="C180">
+        <v>2018</v>
+      </c>
+      <c r="D180" t="s">
+        <v>0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>0</v>
+      </c>
+      <c r="F180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>694</v>
+      </c>
+      <c r="B181" t="s">
+        <v>695</v>
+      </c>
+      <c r="C181">
+        <v>2020</v>
+      </c>
+      <c r="D181" t="s">
+        <v>0</v>
+      </c>
+      <c r="E181" t="s">
+        <v>0</v>
+      </c>
+      <c r="F181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>696</v>
+      </c>
+      <c r="B182" t="s">
+        <v>697</v>
+      </c>
+      <c r="C182">
+        <v>2019</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1</v>
+      </c>
+      <c r="E182" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>698</v>
+      </c>
+      <c r="B183" t="s">
+        <v>699</v>
+      </c>
+      <c r="C183">
+        <v>2014</v>
+      </c>
+      <c r="D183" t="s">
+        <v>0</v>
+      </c>
+      <c r="E183" t="s">
+        <v>0</v>
+      </c>
+      <c r="F183" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>700</v>
+      </c>
+      <c r="B184" t="s">
+        <v>701</v>
+      </c>
+      <c r="C184">
+        <v>2017</v>
+      </c>
+      <c r="D184" t="s">
+        <v>0</v>
+      </c>
+      <c r="E184" t="s">
+        <v>0</v>
+      </c>
+      <c r="F184" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>702</v>
+      </c>
+      <c r="B185" t="s">
+        <v>703</v>
+      </c>
+      <c r="C185">
+        <v>2015</v>
+      </c>
+      <c r="D185" t="s">
+        <v>0</v>
+      </c>
+      <c r="E185" t="s">
+        <v>0</v>
+      </c>
+      <c r="F185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>704</v>
+      </c>
+      <c r="B186" t="s">
+        <v>705</v>
+      </c>
+      <c r="C186">
+        <v>2015</v>
+      </c>
+      <c r="D186" t="s">
+        <v>0</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1</v>
+      </c>
+      <c r="F186" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>706</v>
+      </c>
+      <c r="B187" t="s">
+        <v>707</v>
+      </c>
+      <c r="C187">
+        <v>2007</v>
+      </c>
+      <c r="D187" t="s">
+        <v>0</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1</v>
+      </c>
+      <c r="F187" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>708</v>
+      </c>
+      <c r="B188" t="s">
+        <v>709</v>
+      </c>
+      <c r="C188">
+        <v>2020</v>
+      </c>
+      <c r="D188" t="s">
+        <v>0</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1</v>
+      </c>
+      <c r="G188" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>710</v>
+      </c>
+      <c r="B189" t="s">
+        <v>711</v>
+      </c>
+      <c r="C189">
+        <v>2020</v>
+      </c>
+      <c r="D189" t="s">
+        <v>0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>0</v>
+      </c>
+      <c r="F189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>712</v>
+      </c>
+      <c r="B190" t="s">
+        <v>713</v>
+      </c>
+      <c r="C190">
+        <v>2020</v>
+      </c>
+      <c r="D190" t="s">
+        <v>0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>0</v>
+      </c>
+      <c r="F190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>714</v>
+      </c>
+      <c r="B191" t="s">
+        <v>715</v>
+      </c>
+      <c r="C191">
+        <v>2019</v>
+      </c>
+      <c r="D191" t="s">
+        <v>0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>0</v>
+      </c>
+      <c r="F191" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>716</v>
+      </c>
+      <c r="B192" t="s">
+        <v>717</v>
+      </c>
+      <c r="C192">
+        <v>2015</v>
+      </c>
+      <c r="D192" t="s">
+        <v>0</v>
+      </c>
+      <c r="E192" t="s">
+        <v>0</v>
+      </c>
+      <c r="F192" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>718</v>
+      </c>
+      <c r="B193" t="s">
+        <v>719</v>
+      </c>
+      <c r="C193">
+        <v>2016</v>
+      </c>
+      <c r="D193" t="s">
+        <v>0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>0</v>
+      </c>
+      <c r="F193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>720</v>
+      </c>
+      <c r="B194" t="s">
+        <v>721</v>
+      </c>
+      <c r="C194">
+        <v>2017</v>
+      </c>
+      <c r="D194" t="s">
+        <v>0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>0</v>
+      </c>
+      <c r="F194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>722</v>
+      </c>
+      <c r="B195" t="s">
+        <v>723</v>
+      </c>
+      <c r="C195">
+        <v>2015</v>
+      </c>
+      <c r="D195" t="s">
+        <v>0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>0</v>
+      </c>
+      <c r="F195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>724</v>
+      </c>
+      <c r="B196" t="s">
+        <v>725</v>
+      </c>
+      <c r="C196">
+        <v>2015</v>
+      </c>
+      <c r="D196" t="s">
+        <v>0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>0</v>
+      </c>
+      <c r="F196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>726</v>
+      </c>
+      <c r="B197" t="s">
+        <v>727</v>
+      </c>
+      <c r="C197">
+        <v>2018</v>
+      </c>
+      <c r="D197" t="s">
+        <v>0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>0</v>
+      </c>
+      <c r="F197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>728</v>
+      </c>
+      <c r="B198" t="s">
+        <v>729</v>
+      </c>
+      <c r="C198">
+        <v>2018</v>
+      </c>
+      <c r="D198" t="s">
+        <v>0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>0</v>
+      </c>
+      <c r="F198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>730</v>
+      </c>
+      <c r="B199" t="s">
+        <v>731</v>
+      </c>
+      <c r="C199">
+        <v>2016</v>
+      </c>
+      <c r="D199" t="s">
+        <v>0</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1</v>
+      </c>
+      <c r="F199" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>732</v>
+      </c>
+      <c r="B200" t="s">
+        <v>733</v>
+      </c>
+      <c r="C200">
+        <v>2018</v>
+      </c>
+      <c r="D200" t="s">
+        <v>0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>0</v>
+      </c>
+      <c r="F200" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>734</v>
+      </c>
+      <c r="B201" t="s">
+        <v>735</v>
+      </c>
+      <c r="C201">
+        <v>2020</v>
+      </c>
+      <c r="D201" t="s">
+        <v>0</v>
+      </c>
+      <c r="E201" t="s">
+        <v>0</v>
+      </c>
+      <c r="F201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>736</v>
+      </c>
+      <c r="B202" t="s">
+        <v>737</v>
+      </c>
+      <c r="C202">
+        <v>2017</v>
+      </c>
+      <c r="D202" t="s">
+        <v>0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>0</v>
+      </c>
+      <c r="F202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>738</v>
+      </c>
+      <c r="B203" t="s">
+        <v>739</v>
+      </c>
+      <c r="C203">
+        <v>2018</v>
+      </c>
+      <c r="D203" t="s">
+        <v>0</v>
+      </c>
+      <c r="E203" t="s">
+        <v>0</v>
+      </c>
+      <c r="F203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>740</v>
+      </c>
+      <c r="B204" t="s">
+        <v>741</v>
+      </c>
+      <c r="C204">
+        <v>2016</v>
+      </c>
+      <c r="D204" t="s">
+        <v>0</v>
+      </c>
+      <c r="E204" t="s">
+        <v>0</v>
+      </c>
+      <c r="F204" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>742</v>
+      </c>
+      <c r="B205" t="s">
+        <v>743</v>
+      </c>
+      <c r="C205">
+        <v>2011</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E205" t="s">
+        <v>10</v>
+      </c>
+      <c r="F205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>744</v>
+      </c>
+      <c r="B206" t="s">
+        <v>745</v>
+      </c>
+      <c r="C206">
+        <v>2016</v>
+      </c>
+      <c r="D206" t="s">
+        <v>0</v>
+      </c>
+      <c r="E206" t="s">
+        <v>0</v>
+      </c>
+      <c r="F206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>746</v>
+      </c>
+      <c r="B207" t="s">
+        <v>747</v>
+      </c>
+      <c r="C207">
+        <v>2020</v>
+      </c>
+      <c r="D207" t="s">
+        <v>0</v>
+      </c>
+      <c r="E207" t="s">
+        <v>0</v>
+      </c>
+      <c r="F207" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>748</v>
+      </c>
+      <c r="B208" t="s">
+        <v>749</v>
+      </c>
+      <c r="C208">
+        <v>2020</v>
+      </c>
+      <c r="D208" t="s">
+        <v>0</v>
+      </c>
+      <c r="E208" t="s">
+        <v>0</v>
+      </c>
+      <c r="F208" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>750</v>
+      </c>
+      <c r="B209" t="s">
+        <v>751</v>
+      </c>
+      <c r="C209">
+        <v>2019</v>
+      </c>
+      <c r="D209" t="s">
+        <v>0</v>
+      </c>
+      <c r="E209" t="s">
+        <v>0</v>
+      </c>
+      <c r="F209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>752</v>
+      </c>
+      <c r="B210" t="s">
+        <v>753</v>
+      </c>
+      <c r="C210">
+        <v>2018</v>
+      </c>
+      <c r="D210" t="s">
+        <v>0</v>
+      </c>
+      <c r="E210" t="s">
+        <v>0</v>
+      </c>
+      <c r="F210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>754</v>
+      </c>
+      <c r="B211" t="s">
+        <v>755</v>
+      </c>
+      <c r="C211">
+        <v>2019</v>
+      </c>
+      <c r="D211" t="s">
+        <v>0</v>
+      </c>
+      <c r="E211" t="s">
+        <v>0</v>
+      </c>
+      <c r="F211" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>756</v>
+      </c>
+      <c r="B212" t="s">
+        <v>757</v>
+      </c>
+      <c r="C212">
+        <v>2017</v>
+      </c>
+      <c r="D212" t="s">
+        <v>0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>0</v>
+      </c>
+      <c r="F212" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>758</v>
+      </c>
+      <c r="B213" t="s">
+        <v>759</v>
+      </c>
+      <c r="C213">
+        <v>2017</v>
+      </c>
+      <c r="D213" t="s">
+        <v>0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>0</v>
+      </c>
+      <c r="F213" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>760</v>
+      </c>
+      <c r="B214" t="s">
+        <v>761</v>
+      </c>
+      <c r="C214">
+        <v>2012</v>
+      </c>
+      <c r="D214" t="s">
+        <v>0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>0</v>
+      </c>
+      <c r="F214" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>70</v>
+      </c>
+      <c r="B215" t="s">
+        <v>71</v>
+      </c>
+      <c r="C215">
+        <v>2017</v>
+      </c>
+      <c r="D215" t="s">
+        <v>0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>0</v>
+      </c>
+      <c r="F215" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>762</v>
+      </c>
+      <c r="B216" t="s">
+        <v>763</v>
+      </c>
+      <c r="C216">
+        <v>2019</v>
+      </c>
+      <c r="D216" t="s">
+        <v>0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>0</v>
+      </c>
+      <c r="F216" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>764</v>
+      </c>
+      <c r="B217" t="s">
+        <v>765</v>
+      </c>
+      <c r="C217">
+        <v>2015</v>
+      </c>
+      <c r="D217" t="s">
+        <v>0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>0</v>
+      </c>
+      <c r="F217" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>766</v>
+      </c>
+      <c r="B218" t="s">
+        <v>767</v>
+      </c>
+      <c r="C218">
+        <v>2016</v>
+      </c>
+      <c r="D218" t="s">
+        <v>0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>0</v>
+      </c>
+      <c r="F218" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>768</v>
+      </c>
+      <c r="B219" t="s">
+        <v>769</v>
+      </c>
+      <c r="C219">
+        <v>2017</v>
+      </c>
+      <c r="D219" t="s">
+        <v>0</v>
+      </c>
+      <c r="E219" t="s">
+        <v>0</v>
+      </c>
+      <c r="F219" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>770</v>
+      </c>
+      <c r="B220" t="s">
+        <v>771</v>
+      </c>
+      <c r="C220">
+        <v>2020</v>
+      </c>
+      <c r="D220" t="s">
+        <v>0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>0</v>
+      </c>
+      <c r="F220" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>772</v>
+      </c>
+      <c r="B221" t="s">
+        <v>773</v>
+      </c>
+      <c r="C221">
+        <v>2019</v>
+      </c>
+      <c r="D221" t="s">
+        <v>0</v>
+      </c>
+      <c r="E221" t="s">
+        <v>0</v>
+      </c>
+      <c r="F221" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>72</v>
+      </c>
+      <c r="B222" t="s">
+        <v>73</v>
+      </c>
+      <c r="C222">
+        <v>2019</v>
+      </c>
+      <c r="D222" t="s">
+        <v>0</v>
+      </c>
+      <c r="E222" t="s">
+        <v>0</v>
+      </c>
+      <c r="F222" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>774</v>
+      </c>
+      <c r="B223" t="s">
+        <v>775</v>
+      </c>
+      <c r="C223">
+        <v>2020</v>
+      </c>
+      <c r="D223" t="s">
+        <v>0</v>
+      </c>
+      <c r="E223" t="s">
+        <v>0</v>
+      </c>
+      <c r="F223" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>776</v>
+      </c>
+      <c r="B224" t="s">
+        <v>777</v>
+      </c>
+      <c r="C224">
+        <v>2014</v>
+      </c>
+      <c r="D224" t="s">
+        <v>0</v>
+      </c>
+      <c r="E224" t="s">
+        <v>0</v>
+      </c>
+      <c r="F224" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>74</v>
+      </c>
+      <c r="B225" t="s">
+        <v>75</v>
+      </c>
+      <c r="C225">
+        <v>2018</v>
+      </c>
+      <c r="D225" t="s">
+        <v>0</v>
+      </c>
+      <c r="E225" t="s">
+        <v>0</v>
+      </c>
+      <c r="F225" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>778</v>
+      </c>
+      <c r="B226" t="s">
+        <v>779</v>
+      </c>
+      <c r="C226">
+        <v>2019</v>
+      </c>
+      <c r="D226" t="s">
+        <v>0</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1</v>
+      </c>
+      <c r="F226" t="s">
+        <v>1</v>
+      </c>
+      <c r="G226" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>780</v>
+      </c>
+      <c r="B227" t="s">
+        <v>781</v>
+      </c>
+      <c r="C227">
+        <v>2017</v>
+      </c>
+      <c r="D227" t="s">
+        <v>0</v>
+      </c>
+      <c r="E227" t="s">
+        <v>0</v>
+      </c>
+      <c r="F227" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>782</v>
+      </c>
+      <c r="B228" t="s">
+        <v>783</v>
+      </c>
+      <c r="C228">
+        <v>2015</v>
+      </c>
+      <c r="D228" t="s">
+        <v>0</v>
+      </c>
+      <c r="E228" t="s">
+        <v>0</v>
+      </c>
+      <c r="F228" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>784</v>
+      </c>
+      <c r="B229" t="s">
+        <v>785</v>
+      </c>
+      <c r="C229">
+        <v>2012</v>
+      </c>
+      <c r="D229" t="s">
+        <v>0</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1</v>
+      </c>
+      <c r="F229" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>76</v>
+      </c>
+      <c r="B230" t="s">
+        <v>77</v>
+      </c>
+      <c r="C230">
+        <v>2019</v>
+      </c>
+      <c r="D230" t="s">
+        <v>0</v>
+      </c>
+      <c r="E230" t="s">
+        <v>0</v>
+      </c>
+      <c r="F230" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>786</v>
+      </c>
+      <c r="B231" t="s">
+        <v>787</v>
+      </c>
+      <c r="C231">
+        <v>2016</v>
+      </c>
+      <c r="D231" t="s">
+        <v>0</v>
+      </c>
+      <c r="E231" t="s">
+        <v>0</v>
+      </c>
+      <c r="F231" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>788</v>
+      </c>
+      <c r="B232" t="s">
+        <v>789</v>
+      </c>
+      <c r="C232">
+        <v>2020</v>
+      </c>
+      <c r="D232" t="s">
+        <v>0</v>
+      </c>
+      <c r="E232" t="s">
+        <v>0</v>
+      </c>
+      <c r="F232" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>790</v>
+      </c>
+      <c r="B233" t="s">
+        <v>791</v>
+      </c>
+      <c r="C233">
+        <v>2020</v>
+      </c>
+      <c r="D233" t="s">
+        <v>0</v>
+      </c>
+      <c r="E233" t="s">
+        <v>0</v>
+      </c>
+      <c r="F233" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>792</v>
+      </c>
+      <c r="B234" t="s">
+        <v>793</v>
+      </c>
+      <c r="C234">
+        <v>2013</v>
+      </c>
+      <c r="D234" t="s">
+        <v>0</v>
+      </c>
+      <c r="E234" t="s">
+        <v>0</v>
+      </c>
+      <c r="F234" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>794</v>
+      </c>
+      <c r="B235" t="s">
+        <v>795</v>
+      </c>
+      <c r="C235">
+        <v>2020</v>
+      </c>
+      <c r="D235" t="s">
+        <v>0</v>
+      </c>
+      <c r="E235" t="s">
+        <v>0</v>
+      </c>
+      <c r="F235" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>796</v>
+      </c>
+      <c r="B236" t="s">
+        <v>797</v>
+      </c>
+      <c r="C236">
+        <v>2020</v>
+      </c>
+      <c r="D236" t="s">
+        <v>0</v>
+      </c>
+      <c r="E236" t="s">
+        <v>0</v>
+      </c>
+      <c r="F236" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>798</v>
+      </c>
+      <c r="B237" t="s">
+        <v>799</v>
+      </c>
+      <c r="C237">
+        <v>2019</v>
+      </c>
+      <c r="D237" t="s">
+        <v>0</v>
+      </c>
+      <c r="E237" t="s">
+        <v>0</v>
+      </c>
+      <c r="F237" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>800</v>
+      </c>
+      <c r="B238" t="s">
+        <v>801</v>
+      </c>
+      <c r="C238">
+        <v>2019</v>
+      </c>
+      <c r="D238" t="s">
+        <v>0</v>
+      </c>
+      <c r="E238" t="s">
+        <v>0</v>
+      </c>
+      <c r="F238" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>802</v>
+      </c>
+      <c r="B239" t="s">
+        <v>803</v>
+      </c>
+      <c r="C239">
+        <v>2019</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1</v>
+      </c>
+      <c r="E239" t="s">
+        <v>10</v>
+      </c>
+      <c r="F239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>804</v>
+      </c>
+      <c r="B240" t="s">
+        <v>805</v>
+      </c>
+      <c r="C240">
+        <v>2012</v>
+      </c>
+      <c r="D240" t="s">
+        <v>0</v>
+      </c>
+      <c r="E240" t="s">
+        <v>0</v>
+      </c>
+      <c r="F240" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>806</v>
+      </c>
+      <c r="B241" t="s">
+        <v>807</v>
+      </c>
+      <c r="C241">
+        <v>2016</v>
+      </c>
+      <c r="D241" t="s">
+        <v>0</v>
+      </c>
+      <c r="E241" t="s">
+        <v>0</v>
+      </c>
+      <c r="F241" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>78</v>
+      </c>
+      <c r="B242" t="s">
+        <v>79</v>
+      </c>
+      <c r="C242">
+        <v>2018</v>
+      </c>
+      <c r="D242" t="s">
+        <v>0</v>
+      </c>
+      <c r="E242" t="s">
+        <v>0</v>
+      </c>
+      <c r="F242" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>80</v>
+      </c>
+      <c r="B243" t="s">
+        <v>81</v>
+      </c>
+      <c r="C243">
+        <v>2011</v>
+      </c>
+      <c r="D243" t="s">
+        <v>0</v>
+      </c>
+      <c r="E243" t="s">
+        <v>0</v>
+      </c>
+      <c r="F243" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>808</v>
+      </c>
+      <c r="B244" t="s">
+        <v>809</v>
+      </c>
+      <c r="C244">
+        <v>2007</v>
+      </c>
+      <c r="D244" t="s">
+        <v>0</v>
+      </c>
+      <c r="E244" t="s">
+        <v>1</v>
+      </c>
+      <c r="F244" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>810</v>
+      </c>
+      <c r="B245" t="s">
+        <v>811</v>
+      </c>
+      <c r="C245">
+        <v>2020</v>
+      </c>
+      <c r="D245" t="s">
+        <v>0</v>
+      </c>
+      <c r="E245" t="s">
+        <v>0</v>
+      </c>
+      <c r="F245" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>812</v>
+      </c>
+      <c r="B246" t="s">
+        <v>813</v>
+      </c>
+      <c r="C246">
+        <v>2013</v>
+      </c>
+      <c r="D246" t="s">
+        <v>0</v>
+      </c>
+      <c r="E246" t="s">
+        <v>0</v>
+      </c>
+      <c r="F246" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>814</v>
+      </c>
+      <c r="B247" t="s">
+        <v>815</v>
+      </c>
+      <c r="C247">
+        <v>2017</v>
+      </c>
+      <c r="D247" t="s">
+        <v>0</v>
+      </c>
+      <c r="E247" t="s">
+        <v>0</v>
+      </c>
+      <c r="F247" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>816</v>
+      </c>
+      <c r="B248" t="s">
+        <v>817</v>
+      </c>
+      <c r="C248">
+        <v>2015</v>
+      </c>
+      <c r="D248" t="s">
+        <v>0</v>
+      </c>
+      <c r="E248" t="s">
+        <v>0</v>
+      </c>
+      <c r="F248" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>818</v>
+      </c>
+      <c r="B249" t="s">
+        <v>819</v>
+      </c>
+      <c r="C249">
+        <v>2012</v>
+      </c>
+      <c r="D249" t="s">
+        <v>0</v>
+      </c>
+      <c r="E249" t="s">
+        <v>0</v>
+      </c>
+      <c r="F249" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>820</v>
+      </c>
+      <c r="B250" t="s">
+        <v>821</v>
+      </c>
+      <c r="C250">
+        <v>2020</v>
+      </c>
+      <c r="D250" t="s">
+        <v>0</v>
+      </c>
+      <c r="E250" t="s">
+        <v>0</v>
+      </c>
+      <c r="F250" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>822</v>
+      </c>
+      <c r="B251" t="s">
+        <v>823</v>
+      </c>
+      <c r="C251">
+        <v>2019</v>
+      </c>
+      <c r="D251" t="s">
+        <v>0</v>
+      </c>
+      <c r="E251" t="s">
+        <v>0</v>
+      </c>
+      <c r="F251" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>824</v>
+      </c>
+      <c r="B252" t="s">
+        <v>825</v>
+      </c>
+      <c r="C252">
+        <v>2017</v>
+      </c>
+      <c r="D252" t="s">
+        <v>0</v>
+      </c>
+      <c r="E252" t="s">
+        <v>0</v>
+      </c>
+      <c r="F252" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>826</v>
+      </c>
+      <c r="B253" t="s">
+        <v>827</v>
+      </c>
+      <c r="C253">
+        <v>2015</v>
+      </c>
+      <c r="D253" t="s">
+        <v>0</v>
+      </c>
+      <c r="E253" t="s">
+        <v>0</v>
+      </c>
+      <c r="F253" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>82</v>
+      </c>
+      <c r="B254" t="s">
+        <v>83</v>
+      </c>
+      <c r="C254">
+        <v>2013</v>
+      </c>
+      <c r="D254" t="s">
+        <v>0</v>
+      </c>
+      <c r="E254" t="s">
+        <v>0</v>
+      </c>
+      <c r="F254" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>828</v>
+      </c>
+      <c r="B255" t="s">
+        <v>829</v>
+      </c>
+      <c r="C255">
+        <v>2015</v>
+      </c>
+      <c r="D255" t="s">
+        <v>0</v>
+      </c>
+      <c r="E255" t="s">
+        <v>0</v>
+      </c>
+      <c r="F255" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>830</v>
+      </c>
+      <c r="B256" t="s">
+        <v>831</v>
+      </c>
+      <c r="C256">
+        <v>2012</v>
+      </c>
+      <c r="D256" t="s">
+        <v>0</v>
+      </c>
+      <c r="E256" t="s">
+        <v>0</v>
+      </c>
+      <c r="F256" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>832</v>
+      </c>
+      <c r="B257" t="s">
+        <v>833</v>
+      </c>
+      <c r="C257">
+        <v>2008</v>
+      </c>
+      <c r="D257" t="s">
+        <v>0</v>
+      </c>
+      <c r="E257" t="s">
+        <v>0</v>
+      </c>
+      <c r="F257" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>834</v>
+      </c>
+      <c r="B258" t="s">
+        <v>835</v>
+      </c>
+      <c r="C258">
+        <v>2016</v>
+      </c>
+      <c r="D258" t="s">
+        <v>0</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1</v>
+      </c>
+      <c r="F258" t="s">
+        <v>1</v>
+      </c>
+      <c r="G258" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>84</v>
+      </c>
+      <c r="B259" t="s">
+        <v>85</v>
+      </c>
+      <c r="C259">
+        <v>2016</v>
+      </c>
+      <c r="D259" t="s">
+        <v>0</v>
+      </c>
+      <c r="E259" t="s">
+        <v>0</v>
+      </c>
+      <c r="F259" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>837</v>
+      </c>
+      <c r="B260" t="s">
+        <v>838</v>
+      </c>
+      <c r="C260">
+        <v>2015</v>
+      </c>
+      <c r="D260" t="s">
+        <v>0</v>
+      </c>
+      <c r="E260" t="s">
+        <v>1</v>
+      </c>
+      <c r="F260" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>839</v>
+      </c>
+      <c r="B261" t="s">
+        <v>840</v>
+      </c>
+      <c r="C261">
+        <v>2020</v>
+      </c>
+      <c r="D261" t="s">
+        <v>0</v>
+      </c>
+      <c r="E261" t="s">
+        <v>0</v>
+      </c>
+      <c r="F261" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>841</v>
+      </c>
+      <c r="B262" t="s">
+        <v>842</v>
+      </c>
+      <c r="C262">
+        <v>2017</v>
+      </c>
+      <c r="D262" t="s">
+        <v>0</v>
+      </c>
+      <c r="E262" t="s">
+        <v>0</v>
+      </c>
+      <c r="F262" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>843</v>
+      </c>
+      <c r="B263" t="s">
+        <v>844</v>
+      </c>
+      <c r="C263">
+        <v>2018</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1</v>
+      </c>
+      <c r="E263" t="s">
+        <v>10</v>
+      </c>
+      <c r="F263" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>845</v>
+      </c>
+      <c r="B264" t="s">
+        <v>846</v>
+      </c>
+      <c r="C264">
+        <v>2019</v>
+      </c>
+      <c r="D264" t="s">
+        <v>0</v>
+      </c>
+      <c r="E264" t="s">
+        <v>0</v>
+      </c>
+      <c r="F264" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>847</v>
+      </c>
+      <c r="B265" t="s">
+        <v>848</v>
+      </c>
+      <c r="C265">
+        <v>2017</v>
+      </c>
+      <c r="D265" t="s">
+        <v>0</v>
+      </c>
+      <c r="E265" t="s">
+        <v>0</v>
+      </c>
+      <c r="F265" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>847</v>
+      </c>
+      <c r="B266" t="s">
+        <v>849</v>
+      </c>
+      <c r="C266">
+        <v>2017</v>
+      </c>
+      <c r="D266" t="s">
+        <v>0</v>
+      </c>
+      <c r="E266" t="s">
+        <v>1</v>
+      </c>
+      <c r="F266" t="s">
+        <v>1</v>
+      </c>
+      <c r="G266" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>851</v>
+      </c>
+      <c r="B267" t="s">
+        <v>852</v>
+      </c>
+      <c r="C267">
+        <v>2020</v>
+      </c>
+      <c r="D267" t="s">
+        <v>0</v>
+      </c>
+      <c r="E267" t="s">
+        <v>0</v>
+      </c>
+      <c r="F267" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>853</v>
+      </c>
+      <c r="B268" t="s">
+        <v>854</v>
+      </c>
+      <c r="C268">
+        <v>2016</v>
+      </c>
+      <c r="D268" t="s">
+        <v>0</v>
+      </c>
+      <c r="E268" t="s">
+        <v>0</v>
+      </c>
+      <c r="F268" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>855</v>
+      </c>
+      <c r="B269" t="s">
+        <v>856</v>
+      </c>
+      <c r="C269">
+        <v>2019</v>
+      </c>
+      <c r="D269" t="s">
+        <v>0</v>
+      </c>
+      <c r="E269" t="s">
+        <v>0</v>
+      </c>
+      <c r="F269" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>857</v>
+      </c>
+      <c r="B270" t="s">
+        <v>858</v>
+      </c>
+      <c r="C270">
+        <v>2020</v>
+      </c>
+      <c r="D270" t="s">
+        <v>0</v>
+      </c>
+      <c r="E270" t="s">
+        <v>1</v>
+      </c>
+      <c r="F270" t="s">
+        <v>1</v>
+      </c>
+      <c r="G270" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>859</v>
+      </c>
+      <c r="B271" t="s">
+        <v>860</v>
+      </c>
+      <c r="C271">
+        <v>2019</v>
+      </c>
+      <c r="D271" t="s">
+        <v>0</v>
+      </c>
+      <c r="E271" t="s">
+        <v>0</v>
+      </c>
+      <c r="F271" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>861</v>
+      </c>
+      <c r="B272" t="s">
+        <v>862</v>
+      </c>
+      <c r="C272">
+        <v>2019</v>
+      </c>
+      <c r="D272" t="s">
+        <v>0</v>
+      </c>
+      <c r="E272" t="s">
+        <v>0</v>
+      </c>
+      <c r="F272" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>863</v>
+      </c>
+      <c r="B273" t="s">
+        <v>864</v>
+      </c>
+      <c r="C273">
+        <v>2017</v>
+      </c>
+      <c r="D273" t="s">
+        <v>0</v>
+      </c>
+      <c r="E273" t="s">
+        <v>1</v>
+      </c>
+      <c r="F273" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>865</v>
+      </c>
+      <c r="B274" t="s">
+        <v>866</v>
+      </c>
+      <c r="C274">
+        <v>2014</v>
+      </c>
+      <c r="D274" t="s">
+        <v>0</v>
+      </c>
+      <c r="E274" t="s">
+        <v>0</v>
+      </c>
+      <c r="F274" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>867</v>
+      </c>
+      <c r="B275" t="s">
+        <v>868</v>
+      </c>
+      <c r="C275">
+        <v>2020</v>
+      </c>
+      <c r="D275" t="s">
+        <v>0</v>
+      </c>
+      <c r="E275" t="s">
+        <v>0</v>
+      </c>
+      <c r="F275" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>86</v>
+      </c>
+      <c r="B276" t="s">
+        <v>87</v>
+      </c>
+      <c r="C276">
+        <v>2018</v>
+      </c>
+      <c r="D276" t="s">
+        <v>0</v>
+      </c>
+      <c r="E276" t="s">
+        <v>0</v>
+      </c>
+      <c r="F276" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>869</v>
+      </c>
+      <c r="B277" t="s">
+        <v>870</v>
+      </c>
+      <c r="C277">
+        <v>2020</v>
+      </c>
+      <c r="D277" t="s">
+        <v>0</v>
+      </c>
+      <c r="E277" t="s">
+        <v>0</v>
+      </c>
+      <c r="F277" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>871</v>
+      </c>
+      <c r="B278" t="s">
+        <v>872</v>
+      </c>
+      <c r="C278">
+        <v>2018</v>
+      </c>
+      <c r="D278" t="s">
+        <v>0</v>
+      </c>
+      <c r="E278" t="s">
+        <v>0</v>
+      </c>
+      <c r="F278" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>873</v>
+      </c>
+      <c r="B279" t="s">
+        <v>874</v>
+      </c>
+      <c r="C279">
+        <v>2018</v>
+      </c>
+      <c r="D279" t="s">
+        <v>0</v>
+      </c>
+      <c r="E279" t="s">
+        <v>0</v>
+      </c>
+      <c r="F279" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>875</v>
+      </c>
+      <c r="B280" t="s">
+        <v>876</v>
+      </c>
+      <c r="C280">
+        <v>2018</v>
+      </c>
+      <c r="D280" t="s">
+        <v>0</v>
+      </c>
+      <c r="E280" t="s">
+        <v>0</v>
+      </c>
+      <c r="F280" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>877</v>
+      </c>
+      <c r="B281" t="s">
+        <v>878</v>
+      </c>
+      <c r="C281">
+        <v>2019</v>
+      </c>
+      <c r="D281" t="s">
+        <v>0</v>
+      </c>
+      <c r="E281" t="s">
+        <v>0</v>
+      </c>
+      <c r="F281" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>879</v>
+      </c>
+      <c r="B282" t="s">
+        <v>880</v>
+      </c>
+      <c r="C282">
+        <v>2019</v>
+      </c>
+      <c r="D282" t="s">
+        <v>0</v>
+      </c>
+      <c r="E282" t="s">
+        <v>0</v>
+      </c>
+      <c r="F282" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>881</v>
+      </c>
+      <c r="B283" t="s">
+        <v>882</v>
+      </c>
+      <c r="C283">
+        <v>2019</v>
+      </c>
+      <c r="D283" t="s">
+        <v>0</v>
+      </c>
+      <c r="E283" t="s">
+        <v>0</v>
+      </c>
+      <c r="F283" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>883</v>
+      </c>
+      <c r="B284" t="s">
+        <v>884</v>
+      </c>
+      <c r="C284">
+        <v>2016</v>
+      </c>
+      <c r="D284" t="s">
+        <v>0</v>
+      </c>
+      <c r="E284" t="s">
+        <v>0</v>
+      </c>
+      <c r="F284" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D48 E97:F116 E118:F128 E117 G117 E130:F156 G153 E168:F168 E170:F170 E172:F180 E189:F190 E192:F199 E201:F213 E227:F230 E232:F236 E238:F243 G258 E263:F269 G266 E271:F271 E273:F283 D165:F165 D167:D180 D182:D184 E182:F182 D186:F187 D215:D243 E215:F225 D245:D1048576 E245:F261 D189:D213 D50:D156 E89:G89 D157:F163 G157 G10 G13 G33:G34 G39 G42 G167 G169 G183:G184 G200 G191 G231 G237 G262 G272 G284 G188 G36:G37 G55 E285:F1048576">
+    <cfRule type="containsText" dxfId="359" priority="167" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="358" priority="168" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:G1">
+    <cfRule type="containsText" dxfId="357" priority="166" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:F36 G18 E38:F38 E40:F41 E43:F46 E50:F54 E56:F57 E59:F70 E72:F86 E88:F88 E90:F92 E94:F95">
+    <cfRule type="containsText" dxfId="356" priority="164" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="355" priority="165" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:F37">
+    <cfRule type="containsText" dxfId="354" priority="158" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="353" priority="159" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:F39">
+    <cfRule type="containsText" dxfId="352" priority="154" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="351" priority="155" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:F42">
+    <cfRule type="containsText" dxfId="350" priority="150" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="349" priority="151" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
+    <cfRule type="containsText" dxfId="348" priority="146" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",G44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="347" priority="147" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",G44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:F47">
+    <cfRule type="containsText" dxfId="346" priority="144" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="345" priority="145" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="containsText" dxfId="344" priority="142" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",G47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="343" priority="143" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",G47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:F48">
+    <cfRule type="containsText" dxfId="342" priority="140" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="341" priority="141" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48">
+    <cfRule type="containsText" dxfId="340" priority="138" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",G48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="339" priority="139" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",G48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55:F55">
+    <cfRule type="containsText" dxfId="338" priority="136" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="337" priority="137" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:F58">
+    <cfRule type="containsText" dxfId="336" priority="132" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="335" priority="133" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
+    <cfRule type="containsText" dxfId="334" priority="130" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",G58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="333" priority="131" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",G58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:F71">
+    <cfRule type="containsText" dxfId="332" priority="128" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="331" priority="129" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G71">
+    <cfRule type="containsText" dxfId="330" priority="126" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",G71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="329" priority="127" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",G71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87:F87">
+    <cfRule type="containsText" dxfId="328" priority="124" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E87)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="327" priority="125" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E87)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G87">
+    <cfRule type="containsText" dxfId="326" priority="122" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",G87)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="325" priority="123" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",G87)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93:F93">
+    <cfRule type="containsText" dxfId="324" priority="118" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E93)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="323" priority="119" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E93)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G93">
+    <cfRule type="containsText" dxfId="322" priority="116" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",G93)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="321" priority="117" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",G93)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96:F96">
+    <cfRule type="containsText" dxfId="320" priority="114" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E96)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="319" priority="115" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E96)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F117">
+    <cfRule type="containsText" dxfId="318" priority="112" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",F117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="317" priority="113" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",F117)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129:F129">
+    <cfRule type="containsText" dxfId="316" priority="110" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E129)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="315" priority="111" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E129)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G129">
+    <cfRule type="containsText" dxfId="314" priority="108" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",G129)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="313" priority="109" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",G129)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E167:F167">
+    <cfRule type="containsText" dxfId="312" priority="106" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E167)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="311" priority="107" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E167)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E169:F169">
+    <cfRule type="containsText" dxfId="310" priority="102" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E169)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="309" priority="103" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E169)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E171:F171">
+    <cfRule type="containsText" dxfId="308" priority="98" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E171)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="307" priority="99" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E171)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G171">
+    <cfRule type="containsText" dxfId="306" priority="96" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",G171)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="305" priority="97" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",G171)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E183:F183">
+    <cfRule type="containsText" dxfId="304" priority="94" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E183)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="303" priority="95" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E183)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E184:F184">
+    <cfRule type="containsText" dxfId="302" priority="90" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E184)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="301" priority="91" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E184)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E200:F200">
+    <cfRule type="containsText" dxfId="300" priority="82" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E200)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="299" priority="83" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E200)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E191:F191">
+    <cfRule type="containsText" dxfId="298" priority="86" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E191)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="297" priority="87" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E191)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E226:F226">
+    <cfRule type="containsText" dxfId="296" priority="78" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E226)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="295" priority="79" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E226)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G226">
+    <cfRule type="containsText" dxfId="294" priority="76" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",G226)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="293" priority="77" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",G226)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E231:F231">
+    <cfRule type="containsText" dxfId="292" priority="74" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E231)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="291" priority="75" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E231)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E237:F237">
+    <cfRule type="containsText" dxfId="290" priority="70" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E237)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="289" priority="71" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E237)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E262:F262">
+    <cfRule type="containsText" dxfId="288" priority="66" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E262)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="287" priority="67" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E262)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E270:F270">
+    <cfRule type="containsText" dxfId="286" priority="62" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E270)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="285" priority="63" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E270)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G270">
+    <cfRule type="containsText" dxfId="284" priority="60" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",G270)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="283" priority="61" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",G270)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E272:F272">
+    <cfRule type="containsText" dxfId="282" priority="58" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E272)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="281" priority="59" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E272)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E284:F284">
+    <cfRule type="containsText" dxfId="280" priority="54" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E284)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="279" priority="55" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E284)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G1048576">
+    <cfRule type="containsText" dxfId="278" priority="49" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="277" priority="50" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",G2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="containsText" dxfId="276" priority="47" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",G36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="275" priority="48" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",G36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55">
+    <cfRule type="containsText" dxfId="274" priority="45" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",G55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="273" priority="46" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",G55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D164:F164">
+    <cfRule type="containsText" dxfId="272" priority="43" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",D164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="271" priority="44" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",D164)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D166:F166">
+    <cfRule type="containsText" dxfId="270" priority="39" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",D166)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="269" priority="40" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",D166)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D181:F181">
+    <cfRule type="containsText" dxfId="268" priority="35" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",D181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="267" priority="36" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",D181)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D185:F185">
+    <cfRule type="containsText" dxfId="266" priority="31" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",D185)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="265" priority="32" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",D185)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D214:F214">
+    <cfRule type="containsText" dxfId="264" priority="27" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",D214)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="263" priority="28" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",D214)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D244:F244">
+    <cfRule type="containsText" dxfId="262" priority="23" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",D244)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="261" priority="24" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",D244)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D188">
+    <cfRule type="containsText" dxfId="260" priority="15" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",D188)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="259" priority="16" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",D188)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E188:F188">
+    <cfRule type="containsText" dxfId="258" priority="13" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E188)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="257" priority="14" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E188)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="containsText" dxfId="256" priority="7" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",D49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="255" priority="8" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",D49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:F49">
+    <cfRule type="containsText" dxfId="254" priority="5" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="253" priority="6" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3176D549-3032-4519-A44D-989ED666A938}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6357,7 +15351,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
@@ -6478,7 +15472,7 @@
         <v>7</v>
       </c>
       <c r="S33" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="T33" s="5">
         <v>46.846846846846844</v>
@@ -7117,13 +16111,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD021F8-0C1B-474D-9CD9-88EECC5DFF15}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H38" sqref="H38"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7233,7 +16227,7 @@
         <v>118</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
@@ -7263,7 +16257,7 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -7437,7 +16431,7 @@
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -7729,7 +16723,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -7758,7 +16752,7 @@
         <v>119</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J11" t="s">
         <v>1</v>
@@ -9020,13 +18014,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F960695-AC9E-48AA-9473-DCDAA7AC79AF}">
   <dimension ref="A1:O707"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17387,13 +26379,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D33068-6AA3-4B39-B7A2-032AEC535EDC}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17407,7 +26397,7 @@
         <v>262</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>261</v>
@@ -17477,13 +26467,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A22FE43-4051-48B0-9393-4F281F24D91E}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="A1:D24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
